--- a/Code/Results/Cases/Case_2_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_63/res_bus/vm_pu.xlsx
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.992883564717602</v>
+        <v>0.9928835647176023</v>
       </c>
       <c r="D3">
         <v>1.011573300472015</v>
       </c>
       <c r="E3">
-        <v>0.9689237786069104</v>
+        <v>0.9689237786069105</v>
       </c>
       <c r="F3">
-        <v>0.9769813937679135</v>
+        <v>0.9769813937679139</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04081277274196</v>
+        <v>1.040812772741961</v>
       </c>
       <c r="J3">
-        <v>1.013570129035156</v>
+        <v>1.013570129035157</v>
       </c>
       <c r="K3">
-        <v>1.02206020977437</v>
+        <v>1.022060209774371</v>
       </c>
       <c r="L3">
         <v>0.9799703581157874</v>
       </c>
       <c r="M3">
-        <v>0.987917528083469</v>
+        <v>0.9879175280834692</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9979980780058469</v>
+        <v>0.9979980780058473</v>
       </c>
       <c r="D4">
         <v>1.015365782236949</v>
       </c>
       <c r="E4">
-        <v>0.9732638353639018</v>
+        <v>0.9732638353639022</v>
       </c>
       <c r="F4">
-        <v>0.9827057299579386</v>
+        <v>0.9827057299579387</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -521,10 +521,10 @@
         <v>1.025282226683288</v>
       </c>
       <c r="L4">
-        <v>0.9836960247705907</v>
+        <v>0.9836960247705909</v>
       </c>
       <c r="M4">
-        <v>0.9930174624992558</v>
+        <v>0.9930174624992559</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.000106217315953</v>
+        <v>1.000106217315954</v>
       </c>
       <c r="D5">
-        <v>1.016929299668465</v>
+        <v>1.016929299668466</v>
       </c>
       <c r="E5">
-        <v>0.9750565846892023</v>
+        <v>0.9750565846892022</v>
       </c>
       <c r="F5">
-        <v>0.9850679391351438</v>
+        <v>0.9850679391351441</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.04329623179187</v>
       </c>
       <c r="J5">
-        <v>1.019051938933679</v>
+        <v>1.01905193893368</v>
       </c>
       <c r="K5">
-        <v>1.026608020189686</v>
+        <v>1.026608020189687</v>
       </c>
       <c r="L5">
-        <v>0.9852332512990214</v>
+        <v>0.9852332512990212</v>
       </c>
       <c r="M5">
-        <v>0.9951207659733854</v>
+        <v>0.9951207659733856</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000457797955504</v>
+        <v>1.000457797955506</v>
       </c>
       <c r="D6">
-        <v>1.017190066008087</v>
+        <v>1.017190066008089</v>
       </c>
       <c r="E6">
-        <v>0.9753557886645402</v>
+        <v>0.9753557886645409</v>
       </c>
       <c r="F6">
-        <v>0.9854620529118311</v>
+        <v>0.9854620529118324</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043416400531799</v>
+        <v>1.0434164005318</v>
       </c>
       <c r="J6">
-        <v>1.019318473664017</v>
+        <v>1.019318473664019</v>
       </c>
       <c r="K6">
-        <v>1.026828989856274</v>
+        <v>1.026828989856275</v>
       </c>
       <c r="L6">
-        <v>0.9854897077143592</v>
+        <v>0.9854897077143598</v>
       </c>
       <c r="M6">
-        <v>0.9954716097442502</v>
+        <v>0.9954716097442516</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9980264085404019</v>
+        <v>0.9980264085404044</v>
       </c>
       <c r="D7">
-        <v>1.01538679277036</v>
+        <v>1.015386792770362</v>
       </c>
       <c r="E7">
-        <v>0.9732879124646782</v>
+        <v>0.9732879124646793</v>
       </c>
       <c r="F7">
-        <v>0.9827374640313232</v>
+        <v>0.9827374640313252</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042583953694245</v>
+        <v>1.042583953694246</v>
       </c>
       <c r="J7">
-        <v>1.017474624847239</v>
+        <v>1.017474624847241</v>
       </c>
       <c r="K7">
-        <v>1.025300052712572</v>
+        <v>1.025300052712574</v>
       </c>
       <c r="L7">
-        <v>0.9837166769849173</v>
+        <v>0.9837166769849183</v>
       </c>
       <c r="M7">
-        <v>0.993045723370093</v>
+        <v>0.993045723370095</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9874995517685986</v>
+        <v>0.9874995517685972</v>
       </c>
       <c r="D8">
-        <v>1.007582450316463</v>
+        <v>1.007582450316461</v>
       </c>
       <c r="E8">
-        <v>0.9643688314801958</v>
+        <v>0.9643688314801957</v>
       </c>
       <c r="F8">
-        <v>0.970964728610009</v>
+        <v>0.9709647286100083</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038944504651079</v>
+        <v>1.038944504651078</v>
       </c>
       <c r="J8">
-        <v>1.009476685816423</v>
+        <v>1.009476685816421</v>
       </c>
       <c r="K8">
-        <v>1.018660682804577</v>
+        <v>1.018660682804576</v>
       </c>
       <c r="L8">
-        <v>0.9760541049508216</v>
+        <v>0.9760541049508213</v>
       </c>
       <c r="M8">
-        <v>0.9825529145746862</v>
+        <v>0.9825529145746852</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9673686742976989</v>
+        <v>0.9673686742977008</v>
       </c>
       <c r="D9">
-        <v>0.9926807749056535</v>
+        <v>0.9926807749056552</v>
       </c>
       <c r="E9">
         <v>0.9474557744157586</v>
       </c>
       <c r="F9">
-        <v>0.9485385158118178</v>
+        <v>0.948538515811819</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.031852221797126</v>
       </c>
       <c r="J9">
-        <v>0.9941287926836393</v>
+        <v>0.9941287926836411</v>
       </c>
       <c r="K9">
-        <v>1.005893728223389</v>
+        <v>1.005893728223391</v>
       </c>
       <c r="L9">
-        <v>0.9614630400238233</v>
+        <v>0.9614630400238232</v>
       </c>
       <c r="M9">
-        <v>0.9625256100954482</v>
+        <v>0.9625256100954493</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9526469413130568</v>
+        <v>0.9526469413130574</v>
       </c>
       <c r="D10">
-        <v>0.981811123127457</v>
+        <v>0.9818111231274574</v>
       </c>
       <c r="E10">
-        <v>0.935197911531956</v>
+        <v>0.9351979115319562</v>
       </c>
       <c r="F10">
-        <v>0.9321924260676471</v>
+        <v>0.9321924260676476</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.026580929922762</v>
       </c>
       <c r="J10">
-        <v>0.9828739885788537</v>
+        <v>0.9828739885788541</v>
       </c>
       <c r="K10">
-        <v>0.9965167370581182</v>
+        <v>0.9965167370581186</v>
       </c>
       <c r="L10">
-        <v>0.9508448073710715</v>
+        <v>0.9508448073710718</v>
       </c>
       <c r="M10">
-        <v>0.9479043039263293</v>
+        <v>0.9479043039263298</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9458980120655645</v>
+        <v>0.9458980120655641</v>
       </c>
       <c r="D11">
-        <v>0.9768380493352977</v>
+        <v>0.9768380493352975</v>
       </c>
       <c r="E11">
-        <v>0.9296083097791544</v>
+        <v>0.9296083097791539</v>
       </c>
       <c r="F11">
-        <v>0.9247102065067048</v>
+        <v>0.9247102065067045</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.024145813057387</v>
       </c>
       <c r="J11">
-        <v>0.9777085409805155</v>
+        <v>0.9777085409805153</v>
       </c>
       <c r="K11">
-        <v>0.9922103963854177</v>
+        <v>0.9922103963854174</v>
       </c>
       <c r="L11">
-        <v>0.9459921165755361</v>
+        <v>0.9459921165755357</v>
       </c>
       <c r="M11">
-        <v>0.9412068244591413</v>
+        <v>0.9412068244591412</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9433281352597843</v>
+        <v>0.9433281352597849</v>
       </c>
       <c r="D12">
-        <v>0.9749462074069536</v>
+        <v>0.9749462074069547</v>
       </c>
       <c r="E12">
-        <v>0.9274847192255943</v>
+        <v>0.9274847192255944</v>
       </c>
       <c r="F12">
-        <v>0.9218626540387675</v>
+        <v>0.9218626540387678</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02321592394372</v>
+        <v>1.023215923943721</v>
       </c>
       <c r="J12">
-        <v>0.9757408909533236</v>
+        <v>0.9757408909533243</v>
       </c>
       <c r="K12">
-        <v>0.9905696712422606</v>
+        <v>0.9905696712422616</v>
       </c>
       <c r="L12">
-        <v>0.9441468263481555</v>
+        <v>0.9441468263481559</v>
       </c>
       <c r="M12">
-        <v>0.9386573033154599</v>
+        <v>0.9386573033154603</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9438823566032329</v>
+        <v>0.9438823566032346</v>
       </c>
       <c r="D13">
-        <v>0.9753541155194373</v>
+        <v>0.9753541155194387</v>
       </c>
       <c r="E13">
-        <v>0.9279424698939863</v>
+        <v>0.9279424698939872</v>
       </c>
       <c r="F13">
-        <v>0.9224766921414768</v>
+        <v>0.9224766921414781</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023416580724602</v>
+        <v>1.023416580724603</v>
       </c>
       <c r="J13">
-        <v>0.976165266278452</v>
+        <v>0.9761652662784532</v>
       </c>
       <c r="K13">
-        <v>0.9909235501836449</v>
+        <v>0.9909235501836462</v>
       </c>
       <c r="L13">
-        <v>0.9445446639522215</v>
+        <v>0.9445446639522224</v>
       </c>
       <c r="M13">
-        <v>0.9392071011564449</v>
+        <v>0.939207101156446</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9456869144317247</v>
+        <v>0.9456869144317258</v>
       </c>
       <c r="D14">
-        <v>0.9766826087231008</v>
+        <v>0.9766826087231013</v>
       </c>
       <c r="E14">
-        <v>0.9294337714062006</v>
+        <v>0.9294337714062014</v>
       </c>
       <c r="F14">
-        <v>0.924476269411852</v>
+        <v>0.924476269411853</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.024069481524528</v>
       </c>
       <c r="J14">
-        <v>0.9775469260964018</v>
+        <v>0.9775469260964027</v>
       </c>
       <c r="K14">
-        <v>0.9920756400050356</v>
+        <v>0.9920756400050362</v>
       </c>
       <c r="L14">
-        <v>0.9458404858006345</v>
+        <v>0.9458404858006354</v>
       </c>
       <c r="M14">
-        <v>0.9409973837446356</v>
+        <v>0.9409973837446369</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9467901875268016</v>
+        <v>0.9467901875268022</v>
       </c>
       <c r="D15">
-        <v>0.9774950737759854</v>
+        <v>0.9774950737759859</v>
       </c>
       <c r="E15">
-        <v>0.9303461707207809</v>
+        <v>0.9303461707207815</v>
       </c>
       <c r="F15">
-        <v>0.9256989716099955</v>
+        <v>0.9256989716099966</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.024468311918096</v>
       </c>
       <c r="J15">
-        <v>0.9783915554125184</v>
+        <v>0.9783915554125191</v>
       </c>
       <c r="K15">
-        <v>0.9927798888929723</v>
+        <v>0.9927798888929729</v>
       </c>
       <c r="L15">
-        <v>0.9466330677658376</v>
+        <v>0.9466330677658382</v>
       </c>
       <c r="M15">
-        <v>0.942092027854271</v>
+        <v>0.9420920278542718</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,13 +953,13 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9530864060084239</v>
+        <v>0.953086406008424</v>
       </c>
       <c r="D16">
-        <v>0.9821351815841207</v>
+        <v>0.9821351815841209</v>
       </c>
       <c r="E16">
-        <v>0.935562527140794</v>
+        <v>0.9355625271407937</v>
       </c>
       <c r="F16">
         <v>0.932679861161817</v>
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026739125441547</v>
+        <v>1.026739125441548</v>
       </c>
       <c r="J16">
-        <v>0.9832102338446741</v>
+        <v>0.9832102338446743</v>
       </c>
       <c r="K16">
-        <v>0.9967970089639187</v>
+        <v>0.9967970089639189</v>
       </c>
       <c r="L16">
-        <v>0.951161127633934</v>
+        <v>0.9511611276339337</v>
       </c>
       <c r="M16">
         <v>0.9483405259278886</v>
@@ -991,13 +991,13 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9569312038978266</v>
+        <v>0.9569312038978267</v>
       </c>
       <c r="D17">
         <v>0.984971458142893</v>
       </c>
       <c r="E17">
-        <v>0.9387558597027429</v>
+        <v>0.9387558597027427</v>
       </c>
       <c r="F17">
         <v>0.9369456012738751</v>
@@ -1009,16 +1009,16 @@
         <v>1.02812108406531</v>
       </c>
       <c r="J17">
-        <v>0.9861513407341607</v>
+        <v>0.9861513407341608</v>
       </c>
       <c r="K17">
         <v>0.9992482251763597</v>
       </c>
       <c r="L17">
-        <v>0.9539302715112171</v>
+        <v>0.953930271511217</v>
       </c>
       <c r="M17">
-        <v>0.9521575555119374</v>
+        <v>0.9521575555119375</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9591382078884116</v>
+        <v>0.9591382078884115</v>
       </c>
       <c r="D18">
         <v>0.9866004501320701</v>
       </c>
       <c r="E18">
-        <v>0.9405916602532171</v>
+        <v>0.9405916602532169</v>
       </c>
       <c r="F18">
-        <v>0.9393953071245049</v>
+        <v>0.9393953071245047</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1056,7 +1056,7 @@
         <v>0.9555212092281613</v>
       </c>
       <c r="M18">
-        <v>0.9543491277062391</v>
+        <v>0.954349127706239</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9598848881522589</v>
+        <v>0.9598848881522578</v>
       </c>
       <c r="D19">
-        <v>0.9871517199171645</v>
+        <v>0.9871517199171638</v>
       </c>
       <c r="E19">
         <v>0.9412132112908171</v>
       </c>
       <c r="F19">
-        <v>0.9402242849428518</v>
+        <v>0.9402242849428513</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.029180112143134</v>
       </c>
       <c r="J19">
-        <v>0.9884099385116889</v>
+        <v>0.9884099385116881</v>
       </c>
       <c r="K19">
-        <v>1.001130222481248</v>
+        <v>1.001130222481247</v>
       </c>
       <c r="L19">
         <v>0.9560596876958363</v>
       </c>
       <c r="M19">
-        <v>0.9550906744632103</v>
+        <v>0.9550906744632096</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,13 +1105,13 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9565224212479193</v>
+        <v>0.9565224212479186</v>
       </c>
       <c r="D20">
-        <v>0.9846698063488885</v>
+        <v>0.9846698063488878</v>
       </c>
       <c r="E20">
-        <v>0.9384160526608383</v>
+        <v>0.9384160526608382</v>
       </c>
       <c r="F20">
         <v>0.9364919531877836</v>
@@ -1123,16 +1123,16 @@
         <v>1.027974333241537</v>
       </c>
       <c r="J20">
-        <v>0.9858386964755544</v>
+        <v>0.9858386964755539</v>
       </c>
       <c r="K20">
-        <v>0.9989876835319879</v>
+        <v>0.9989876835319872</v>
       </c>
       <c r="L20">
-        <v>0.9536357076198879</v>
+        <v>0.9536357076198876</v>
       </c>
       <c r="M20">
-        <v>0.9517516726723902</v>
+        <v>0.9517516726723899</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9451573174006783</v>
+        <v>0.9451573174006777</v>
       </c>
       <c r="D21">
-        <v>0.9762926731895107</v>
+        <v>0.9762926731895103</v>
       </c>
       <c r="E21">
         <v>0.9289959723532043</v>
       </c>
       <c r="F21">
-        <v>0.9238893975213085</v>
+        <v>0.9238893975213079</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.023877940880958</v>
       </c>
       <c r="J21">
-        <v>0.9771414590027867</v>
+        <v>0.9771414590027863</v>
       </c>
       <c r="K21">
-        <v>0.9917375517766658</v>
+        <v>0.9917375517766651</v>
       </c>
       <c r="L21">
-        <v>0.945460119529124</v>
+        <v>0.9454601195291237</v>
       </c>
       <c r="M21">
-        <v>0.9404719556469198</v>
+        <v>0.940471955646919</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9376426918086318</v>
+        <v>0.9376426918086328</v>
       </c>
       <c r="D22">
-        <v>0.9707645810290729</v>
+        <v>0.9707645810290739</v>
       </c>
       <c r="E22">
-        <v>0.9227960058953711</v>
+        <v>0.9227960058953715</v>
       </c>
       <c r="F22">
-        <v>0.9155655578229042</v>
+        <v>0.9155655578229052</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02115400065245</v>
+        <v>1.021154000652451</v>
       </c>
       <c r="J22">
-        <v>0.9713865990790743</v>
+        <v>0.9713865990790753</v>
       </c>
       <c r="K22">
-        <v>0.9869383296183372</v>
+        <v>0.9869383296183381</v>
       </c>
       <c r="L22">
-        <v>0.9400694382403599</v>
+        <v>0.9400694382403604</v>
       </c>
       <c r="M22">
-        <v>0.9330182447701568</v>
+        <v>0.9330182447701575</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9416639031611036</v>
+        <v>0.9416639031611029</v>
       </c>
       <c r="D23">
-        <v>0.9737216236247699</v>
+        <v>0.9737216236247691</v>
       </c>
       <c r="E23">
         <v>0.9261109116413874</v>
       </c>
       <c r="F23">
-        <v>0.9200190154905553</v>
+        <v>0.9200190154905551</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.022613012061448</v>
       </c>
       <c r="J23">
-        <v>0.9744664688799743</v>
+        <v>0.9744664688799738</v>
       </c>
       <c r="K23">
-        <v>0.9895069117886117</v>
+        <v>0.9895069117886112</v>
       </c>
       <c r="L23">
-        <v>0.9429525823344183</v>
+        <v>0.9429525823344184</v>
       </c>
       <c r="M23">
-        <v>0.9370064620172578</v>
+        <v>0.9370064620172575</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9567072420526259</v>
+        <v>0.9567072420526255</v>
       </c>
       <c r="D24">
-        <v>0.9848061878432536</v>
+        <v>0.9848061878432531</v>
       </c>
       <c r="E24">
-        <v>0.9385696793380598</v>
+        <v>0.9385696793380591</v>
       </c>
       <c r="F24">
-        <v>0.9366970554286869</v>
+        <v>0.9366970554286864</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.028040688372546</v>
       </c>
       <c r="J24">
-        <v>0.9859800524678782</v>
+        <v>0.9859800524678776</v>
       </c>
       <c r="K24">
-        <v>0.999105483157835</v>
+        <v>0.9991054831578344</v>
       </c>
       <c r="L24">
-        <v>0.9537688829949941</v>
+        <v>0.9537688829949935</v>
       </c>
       <c r="M24">
-        <v>0.9519351808174422</v>
+        <v>0.9519351808174418</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9727827845638836</v>
+        <v>0.9727827845638829</v>
       </c>
       <c r="D25">
-        <v>0.9966847484200574</v>
+        <v>0.9966847484200573</v>
       </c>
       <c r="E25">
-        <v>0.951986806012016</v>
+        <v>0.9519868060120159</v>
       </c>
       <c r="F25">
-        <v>0.9545603831503416</v>
+        <v>0.9545603831503415</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,7 +1313,7 @@
         <v>1.033774382163632</v>
       </c>
       <c r="J25">
-        <v>0.9982621642730841</v>
+        <v>0.9982621642730838</v>
       </c>
       <c r="K25">
         <v>1.009334748332183</v>

--- a/Code/Results/Cases/Case_2_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_63/res_bus/vm_pu.xlsx
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9928835647176023</v>
+        <v>0.992883564717602</v>
       </c>
       <c r="D3">
         <v>1.011573300472015</v>
       </c>
       <c r="E3">
-        <v>0.9689237786069105</v>
+        <v>0.9689237786069104</v>
       </c>
       <c r="F3">
-        <v>0.9769813937679139</v>
+        <v>0.9769813937679135</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040812772741961</v>
+        <v>1.04081277274196</v>
       </c>
       <c r="J3">
-        <v>1.013570129035157</v>
+        <v>1.013570129035156</v>
       </c>
       <c r="K3">
-        <v>1.022060209774371</v>
+        <v>1.02206020977437</v>
       </c>
       <c r="L3">
         <v>0.9799703581157874</v>
       </c>
       <c r="M3">
-        <v>0.9879175280834692</v>
+        <v>0.987917528083469</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9979980780058473</v>
+        <v>0.9979980780058469</v>
       </c>
       <c r="D4">
         <v>1.015365782236949</v>
       </c>
       <c r="E4">
-        <v>0.9732638353639022</v>
+        <v>0.9732638353639018</v>
       </c>
       <c r="F4">
-        <v>0.9827057299579387</v>
+        <v>0.9827057299579386</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -521,10 +521,10 @@
         <v>1.025282226683288</v>
       </c>
       <c r="L4">
-        <v>0.9836960247705909</v>
+        <v>0.9836960247705907</v>
       </c>
       <c r="M4">
-        <v>0.9930174624992559</v>
+        <v>0.9930174624992558</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.000106217315954</v>
+        <v>1.000106217315953</v>
       </c>
       <c r="D5">
-        <v>1.016929299668466</v>
+        <v>1.016929299668465</v>
       </c>
       <c r="E5">
-        <v>0.9750565846892022</v>
+        <v>0.9750565846892023</v>
       </c>
       <c r="F5">
-        <v>0.9850679391351441</v>
+        <v>0.9850679391351438</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.04329623179187</v>
       </c>
       <c r="J5">
-        <v>1.01905193893368</v>
+        <v>1.019051938933679</v>
       </c>
       <c r="K5">
-        <v>1.026608020189687</v>
+        <v>1.026608020189686</v>
       </c>
       <c r="L5">
-        <v>0.9852332512990212</v>
+        <v>0.9852332512990214</v>
       </c>
       <c r="M5">
-        <v>0.9951207659733856</v>
+        <v>0.9951207659733854</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000457797955506</v>
+        <v>1.000457797955504</v>
       </c>
       <c r="D6">
-        <v>1.017190066008089</v>
+        <v>1.017190066008087</v>
       </c>
       <c r="E6">
-        <v>0.9753557886645409</v>
+        <v>0.9753557886645402</v>
       </c>
       <c r="F6">
-        <v>0.9854620529118324</v>
+        <v>0.9854620529118311</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0434164005318</v>
+        <v>1.043416400531799</v>
       </c>
       <c r="J6">
-        <v>1.019318473664019</v>
+        <v>1.019318473664017</v>
       </c>
       <c r="K6">
-        <v>1.026828989856275</v>
+        <v>1.026828989856274</v>
       </c>
       <c r="L6">
-        <v>0.9854897077143598</v>
+        <v>0.9854897077143592</v>
       </c>
       <c r="M6">
-        <v>0.9954716097442516</v>
+        <v>0.9954716097442502</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9980264085404044</v>
+        <v>0.9980264085404019</v>
       </c>
       <c r="D7">
-        <v>1.015386792770362</v>
+        <v>1.01538679277036</v>
       </c>
       <c r="E7">
-        <v>0.9732879124646793</v>
+        <v>0.9732879124646782</v>
       </c>
       <c r="F7">
-        <v>0.9827374640313252</v>
+        <v>0.9827374640313232</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042583953694246</v>
+        <v>1.042583953694245</v>
       </c>
       <c r="J7">
-        <v>1.017474624847241</v>
+        <v>1.017474624847239</v>
       </c>
       <c r="K7">
-        <v>1.025300052712574</v>
+        <v>1.025300052712572</v>
       </c>
       <c r="L7">
-        <v>0.9837166769849183</v>
+        <v>0.9837166769849173</v>
       </c>
       <c r="M7">
-        <v>0.993045723370095</v>
+        <v>0.993045723370093</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9874995517685972</v>
+        <v>0.9874995517685986</v>
       </c>
       <c r="D8">
-        <v>1.007582450316461</v>
+        <v>1.007582450316463</v>
       </c>
       <c r="E8">
-        <v>0.9643688314801957</v>
+        <v>0.9643688314801958</v>
       </c>
       <c r="F8">
-        <v>0.9709647286100083</v>
+        <v>0.970964728610009</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038944504651078</v>
+        <v>1.038944504651079</v>
       </c>
       <c r="J8">
-        <v>1.009476685816421</v>
+        <v>1.009476685816423</v>
       </c>
       <c r="K8">
-        <v>1.018660682804576</v>
+        <v>1.018660682804577</v>
       </c>
       <c r="L8">
-        <v>0.9760541049508213</v>
+        <v>0.9760541049508216</v>
       </c>
       <c r="M8">
-        <v>0.9825529145746852</v>
+        <v>0.9825529145746862</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9673686742977008</v>
+        <v>0.9673686742976989</v>
       </c>
       <c r="D9">
-        <v>0.9926807749056552</v>
+        <v>0.9926807749056535</v>
       </c>
       <c r="E9">
         <v>0.9474557744157586</v>
       </c>
       <c r="F9">
-        <v>0.948538515811819</v>
+        <v>0.9485385158118178</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.031852221797126</v>
       </c>
       <c r="J9">
-        <v>0.9941287926836411</v>
+        <v>0.9941287926836393</v>
       </c>
       <c r="K9">
-        <v>1.005893728223391</v>
+        <v>1.005893728223389</v>
       </c>
       <c r="L9">
-        <v>0.9614630400238232</v>
+        <v>0.9614630400238233</v>
       </c>
       <c r="M9">
-        <v>0.9625256100954493</v>
+        <v>0.9625256100954482</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9526469413130574</v>
+        <v>0.9526469413130568</v>
       </c>
       <c r="D10">
-        <v>0.9818111231274574</v>
+        <v>0.981811123127457</v>
       </c>
       <c r="E10">
-        <v>0.9351979115319562</v>
+        <v>0.935197911531956</v>
       </c>
       <c r="F10">
-        <v>0.9321924260676476</v>
+        <v>0.9321924260676471</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.026580929922762</v>
       </c>
       <c r="J10">
-        <v>0.9828739885788541</v>
+        <v>0.9828739885788537</v>
       </c>
       <c r="K10">
-        <v>0.9965167370581186</v>
+        <v>0.9965167370581182</v>
       </c>
       <c r="L10">
-        <v>0.9508448073710718</v>
+        <v>0.9508448073710715</v>
       </c>
       <c r="M10">
-        <v>0.9479043039263298</v>
+        <v>0.9479043039263293</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9458980120655641</v>
+        <v>0.9458980120655645</v>
       </c>
       <c r="D11">
-        <v>0.9768380493352975</v>
+        <v>0.9768380493352977</v>
       </c>
       <c r="E11">
-        <v>0.9296083097791539</v>
+        <v>0.9296083097791544</v>
       </c>
       <c r="F11">
-        <v>0.9247102065067045</v>
+        <v>0.9247102065067048</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.024145813057387</v>
       </c>
       <c r="J11">
-        <v>0.9777085409805153</v>
+        <v>0.9777085409805155</v>
       </c>
       <c r="K11">
-        <v>0.9922103963854174</v>
+        <v>0.9922103963854177</v>
       </c>
       <c r="L11">
-        <v>0.9459921165755357</v>
+        <v>0.9459921165755361</v>
       </c>
       <c r="M11">
-        <v>0.9412068244591412</v>
+        <v>0.9412068244591413</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9433281352597849</v>
+        <v>0.9433281352597843</v>
       </c>
       <c r="D12">
-        <v>0.9749462074069547</v>
+        <v>0.9749462074069536</v>
       </c>
       <c r="E12">
-        <v>0.9274847192255944</v>
+        <v>0.9274847192255943</v>
       </c>
       <c r="F12">
-        <v>0.9218626540387678</v>
+        <v>0.9218626540387675</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023215923943721</v>
+        <v>1.02321592394372</v>
       </c>
       <c r="J12">
-        <v>0.9757408909533243</v>
+        <v>0.9757408909533236</v>
       </c>
       <c r="K12">
-        <v>0.9905696712422616</v>
+        <v>0.9905696712422606</v>
       </c>
       <c r="L12">
-        <v>0.9441468263481559</v>
+        <v>0.9441468263481555</v>
       </c>
       <c r="M12">
-        <v>0.9386573033154603</v>
+        <v>0.9386573033154599</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9438823566032346</v>
+        <v>0.9438823566032329</v>
       </c>
       <c r="D13">
-        <v>0.9753541155194387</v>
+        <v>0.9753541155194373</v>
       </c>
       <c r="E13">
-        <v>0.9279424698939872</v>
+        <v>0.9279424698939863</v>
       </c>
       <c r="F13">
-        <v>0.9224766921414781</v>
+        <v>0.9224766921414768</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023416580724603</v>
+        <v>1.023416580724602</v>
       </c>
       <c r="J13">
-        <v>0.9761652662784532</v>
+        <v>0.976165266278452</v>
       </c>
       <c r="K13">
-        <v>0.9909235501836462</v>
+        <v>0.9909235501836449</v>
       </c>
       <c r="L13">
-        <v>0.9445446639522224</v>
+        <v>0.9445446639522215</v>
       </c>
       <c r="M13">
-        <v>0.939207101156446</v>
+        <v>0.9392071011564449</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9456869144317258</v>
+        <v>0.9456869144317247</v>
       </c>
       <c r="D14">
-        <v>0.9766826087231013</v>
+        <v>0.9766826087231008</v>
       </c>
       <c r="E14">
-        <v>0.9294337714062014</v>
+        <v>0.9294337714062006</v>
       </c>
       <c r="F14">
-        <v>0.924476269411853</v>
+        <v>0.924476269411852</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.024069481524528</v>
       </c>
       <c r="J14">
-        <v>0.9775469260964027</v>
+        <v>0.9775469260964018</v>
       </c>
       <c r="K14">
-        <v>0.9920756400050362</v>
+        <v>0.9920756400050356</v>
       </c>
       <c r="L14">
-        <v>0.9458404858006354</v>
+        <v>0.9458404858006345</v>
       </c>
       <c r="M14">
-        <v>0.9409973837446369</v>
+        <v>0.9409973837446356</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9467901875268022</v>
+        <v>0.9467901875268016</v>
       </c>
       <c r="D15">
-        <v>0.9774950737759859</v>
+        <v>0.9774950737759854</v>
       </c>
       <c r="E15">
-        <v>0.9303461707207815</v>
+        <v>0.9303461707207809</v>
       </c>
       <c r="F15">
-        <v>0.9256989716099966</v>
+        <v>0.9256989716099955</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.024468311918096</v>
       </c>
       <c r="J15">
-        <v>0.9783915554125191</v>
+        <v>0.9783915554125184</v>
       </c>
       <c r="K15">
-        <v>0.9927798888929729</v>
+        <v>0.9927798888929723</v>
       </c>
       <c r="L15">
-        <v>0.9466330677658382</v>
+        <v>0.9466330677658376</v>
       </c>
       <c r="M15">
-        <v>0.9420920278542718</v>
+        <v>0.942092027854271</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,13 +953,13 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.953086406008424</v>
+        <v>0.9530864060084239</v>
       </c>
       <c r="D16">
-        <v>0.9821351815841209</v>
+        <v>0.9821351815841207</v>
       </c>
       <c r="E16">
-        <v>0.9355625271407937</v>
+        <v>0.935562527140794</v>
       </c>
       <c r="F16">
         <v>0.932679861161817</v>
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026739125441548</v>
+        <v>1.026739125441547</v>
       </c>
       <c r="J16">
-        <v>0.9832102338446743</v>
+        <v>0.9832102338446741</v>
       </c>
       <c r="K16">
-        <v>0.9967970089639189</v>
+        <v>0.9967970089639187</v>
       </c>
       <c r="L16">
-        <v>0.9511611276339337</v>
+        <v>0.951161127633934</v>
       </c>
       <c r="M16">
         <v>0.9483405259278886</v>
@@ -991,13 +991,13 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9569312038978267</v>
+        <v>0.9569312038978266</v>
       </c>
       <c r="D17">
         <v>0.984971458142893</v>
       </c>
       <c r="E17">
-        <v>0.9387558597027427</v>
+        <v>0.9387558597027429</v>
       </c>
       <c r="F17">
         <v>0.9369456012738751</v>
@@ -1009,16 +1009,16 @@
         <v>1.02812108406531</v>
       </c>
       <c r="J17">
-        <v>0.9861513407341608</v>
+        <v>0.9861513407341607</v>
       </c>
       <c r="K17">
         <v>0.9992482251763597</v>
       </c>
       <c r="L17">
-        <v>0.953930271511217</v>
+        <v>0.9539302715112171</v>
       </c>
       <c r="M17">
-        <v>0.9521575555119375</v>
+        <v>0.9521575555119374</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9591382078884115</v>
+        <v>0.9591382078884116</v>
       </c>
       <c r="D18">
         <v>0.9866004501320701</v>
       </c>
       <c r="E18">
-        <v>0.9405916602532169</v>
+        <v>0.9405916602532171</v>
       </c>
       <c r="F18">
-        <v>0.9393953071245047</v>
+        <v>0.9393953071245049</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1056,7 +1056,7 @@
         <v>0.9555212092281613</v>
       </c>
       <c r="M18">
-        <v>0.954349127706239</v>
+        <v>0.9543491277062391</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9598848881522578</v>
+        <v>0.9598848881522589</v>
       </c>
       <c r="D19">
-        <v>0.9871517199171638</v>
+        <v>0.9871517199171645</v>
       </c>
       <c r="E19">
         <v>0.9412132112908171</v>
       </c>
       <c r="F19">
-        <v>0.9402242849428513</v>
+        <v>0.9402242849428518</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.029180112143134</v>
       </c>
       <c r="J19">
-        <v>0.9884099385116881</v>
+        <v>0.9884099385116889</v>
       </c>
       <c r="K19">
-        <v>1.001130222481247</v>
+        <v>1.001130222481248</v>
       </c>
       <c r="L19">
         <v>0.9560596876958363</v>
       </c>
       <c r="M19">
-        <v>0.9550906744632096</v>
+        <v>0.9550906744632103</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,13 +1105,13 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9565224212479186</v>
+        <v>0.9565224212479193</v>
       </c>
       <c r="D20">
-        <v>0.9846698063488878</v>
+        <v>0.9846698063488885</v>
       </c>
       <c r="E20">
-        <v>0.9384160526608382</v>
+        <v>0.9384160526608383</v>
       </c>
       <c r="F20">
         <v>0.9364919531877836</v>
@@ -1123,16 +1123,16 @@
         <v>1.027974333241537</v>
       </c>
       <c r="J20">
-        <v>0.9858386964755539</v>
+        <v>0.9858386964755544</v>
       </c>
       <c r="K20">
-        <v>0.9989876835319872</v>
+        <v>0.9989876835319879</v>
       </c>
       <c r="L20">
-        <v>0.9536357076198876</v>
+        <v>0.9536357076198879</v>
       </c>
       <c r="M20">
-        <v>0.9517516726723899</v>
+        <v>0.9517516726723902</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9451573174006777</v>
+        <v>0.9451573174006783</v>
       </c>
       <c r="D21">
-        <v>0.9762926731895103</v>
+        <v>0.9762926731895107</v>
       </c>
       <c r="E21">
         <v>0.9289959723532043</v>
       </c>
       <c r="F21">
-        <v>0.9238893975213079</v>
+        <v>0.9238893975213085</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.023877940880958</v>
       </c>
       <c r="J21">
-        <v>0.9771414590027863</v>
+        <v>0.9771414590027867</v>
       </c>
       <c r="K21">
-        <v>0.9917375517766651</v>
+        <v>0.9917375517766658</v>
       </c>
       <c r="L21">
-        <v>0.9454601195291237</v>
+        <v>0.945460119529124</v>
       </c>
       <c r="M21">
-        <v>0.940471955646919</v>
+        <v>0.9404719556469198</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9376426918086328</v>
+        <v>0.9376426918086318</v>
       </c>
       <c r="D22">
-        <v>0.9707645810290739</v>
+        <v>0.9707645810290729</v>
       </c>
       <c r="E22">
-        <v>0.9227960058953715</v>
+        <v>0.9227960058953711</v>
       </c>
       <c r="F22">
-        <v>0.9155655578229052</v>
+        <v>0.9155655578229042</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021154000652451</v>
+        <v>1.02115400065245</v>
       </c>
       <c r="J22">
-        <v>0.9713865990790753</v>
+        <v>0.9713865990790743</v>
       </c>
       <c r="K22">
-        <v>0.9869383296183381</v>
+        <v>0.9869383296183372</v>
       </c>
       <c r="L22">
-        <v>0.9400694382403604</v>
+        <v>0.9400694382403599</v>
       </c>
       <c r="M22">
-        <v>0.9330182447701575</v>
+        <v>0.9330182447701568</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9416639031611029</v>
+        <v>0.9416639031611036</v>
       </c>
       <c r="D23">
-        <v>0.9737216236247691</v>
+        <v>0.9737216236247699</v>
       </c>
       <c r="E23">
         <v>0.9261109116413874</v>
       </c>
       <c r="F23">
-        <v>0.9200190154905551</v>
+        <v>0.9200190154905553</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.022613012061448</v>
       </c>
       <c r="J23">
-        <v>0.9744664688799738</v>
+        <v>0.9744664688799743</v>
       </c>
       <c r="K23">
-        <v>0.9895069117886112</v>
+        <v>0.9895069117886117</v>
       </c>
       <c r="L23">
-        <v>0.9429525823344184</v>
+        <v>0.9429525823344183</v>
       </c>
       <c r="M23">
-        <v>0.9370064620172575</v>
+        <v>0.9370064620172578</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9567072420526255</v>
+        <v>0.9567072420526259</v>
       </c>
       <c r="D24">
-        <v>0.9848061878432531</v>
+        <v>0.9848061878432536</v>
       </c>
       <c r="E24">
-        <v>0.9385696793380591</v>
+        <v>0.9385696793380598</v>
       </c>
       <c r="F24">
-        <v>0.9366970554286864</v>
+        <v>0.9366970554286869</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.028040688372546</v>
       </c>
       <c r="J24">
-        <v>0.9859800524678776</v>
+        <v>0.9859800524678782</v>
       </c>
       <c r="K24">
-        <v>0.9991054831578344</v>
+        <v>0.999105483157835</v>
       </c>
       <c r="L24">
-        <v>0.9537688829949935</v>
+        <v>0.9537688829949941</v>
       </c>
       <c r="M24">
-        <v>0.9519351808174418</v>
+        <v>0.9519351808174422</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9727827845638829</v>
+        <v>0.9727827845638836</v>
       </c>
       <c r="D25">
-        <v>0.9966847484200573</v>
+        <v>0.9966847484200574</v>
       </c>
       <c r="E25">
-        <v>0.9519868060120159</v>
+        <v>0.951986806012016</v>
       </c>
       <c r="F25">
-        <v>0.9545603831503415</v>
+        <v>0.9545603831503416</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,7 +1313,7 @@
         <v>1.033774382163632</v>
       </c>
       <c r="J25">
-        <v>0.9982621642730838</v>
+        <v>0.9982621642730841</v>
       </c>
       <c r="K25">
         <v>1.009334748332183</v>

--- a/Code/Results/Cases/Case_2_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_63/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9846898236158045</v>
+        <v>0.9873168525973876</v>
       </c>
       <c r="D2">
-        <v>1.005500503400538</v>
+        <v>1.007516521311352</v>
       </c>
       <c r="E2">
-        <v>0.9619972217007631</v>
+        <v>0.9628569835927158</v>
       </c>
       <c r="F2">
-        <v>0.9678283303545037</v>
+        <v>0.9697552244166378</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037964249525515</v>
+        <v>1.039104237515192</v>
       </c>
       <c r="J2">
-        <v>1.007338305528481</v>
+        <v>1.009883647169662</v>
       </c>
       <c r="K2">
-        <v>1.016883735703038</v>
+        <v>1.018872122944418</v>
       </c>
       <c r="L2">
-        <v>0.9740126740416621</v>
+        <v>0.9748592354141856</v>
       </c>
       <c r="M2">
-        <v>0.9797548395696755</v>
+        <v>0.981652641711713</v>
+      </c>
+      <c r="N2">
+        <v>1.011317797783917</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.992883564717602</v>
+        <v>0.9954900709706661</v>
       </c>
       <c r="D3">
-        <v>1.011573300472015</v>
+        <v>1.013576953976838</v>
       </c>
       <c r="E3">
-        <v>0.9689237786069104</v>
+        <v>0.969769356961569</v>
       </c>
       <c r="F3">
-        <v>0.9769813937679135</v>
+        <v>0.9788858705913106</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04081277274196</v>
+        <v>1.041947276684996</v>
       </c>
       <c r="J3">
-        <v>1.013570129035156</v>
+        <v>1.016104440834954</v>
       </c>
       <c r="K3">
-        <v>1.02206020977437</v>
+        <v>1.02403901316101</v>
       </c>
       <c r="L3">
-        <v>0.9799703581157874</v>
+        <v>0.9808042375169063</v>
       </c>
       <c r="M3">
-        <v>0.987917528083469</v>
+        <v>0.9897962344564964</v>
+      </c>
+      <c r="N3">
+        <v>1.017547425689748</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9979980780058469</v>
+        <v>1.000592728514753</v>
       </c>
       <c r="D4">
-        <v>1.015365782236949</v>
+        <v>1.017362359670805</v>
       </c>
       <c r="E4">
-        <v>0.9732638353639018</v>
+        <v>0.9741011435077007</v>
       </c>
       <c r="F4">
-        <v>0.9827057299579386</v>
+        <v>0.9845971582428016</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042574234860321</v>
+        <v>1.043705688864333</v>
       </c>
       <c r="J4">
-        <v>1.017453132152991</v>
+        <v>1.019981284379561</v>
       </c>
       <c r="K4">
-        <v>1.025282226683288</v>
+        <v>1.027255656909222</v>
       </c>
       <c r="L4">
-        <v>0.9836960247705907</v>
+        <v>0.98452253277916</v>
       </c>
       <c r="M4">
-        <v>0.9930174624992558</v>
+        <v>0.9948851069084206</v>
+      </c>
+      <c r="N4">
+        <v>1.021429774796869</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.000106217315953</v>
+        <v>1.002696189848728</v>
       </c>
       <c r="D5">
-        <v>1.016929299668465</v>
+        <v>1.018923101688692</v>
       </c>
       <c r="E5">
-        <v>0.9750565846892023</v>
+        <v>0.9758906112735946</v>
       </c>
       <c r="F5">
-        <v>0.9850679391351438</v>
+        <v>0.986954194186862</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04329623179187</v>
+        <v>1.044426511477054</v>
       </c>
       <c r="J5">
-        <v>1.019051938933679</v>
+        <v>1.021577711705508</v>
       </c>
       <c r="K5">
-        <v>1.026608020189686</v>
+        <v>1.028579370027784</v>
       </c>
       <c r="L5">
-        <v>0.9852332512990214</v>
+        <v>0.9860568401120205</v>
       </c>
       <c r="M5">
-        <v>0.9951207659733854</v>
+        <v>0.9969840377262427</v>
+      </c>
+      <c r="N5">
+        <v>1.023028469232731</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000457797955504</v>
+        <v>1.003047002075036</v>
       </c>
       <c r="D6">
-        <v>1.017190066008087</v>
+        <v>1.01918341313572</v>
       </c>
       <c r="E6">
-        <v>0.9753557886645402</v>
+        <v>0.9761892751287332</v>
       </c>
       <c r="F6">
-        <v>0.9854620529118311</v>
+        <v>0.9873474567134027</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043416400531799</v>
+        <v>1.04454648906684</v>
       </c>
       <c r="J6">
-        <v>1.019318473664017</v>
+        <v>1.0218438585998</v>
       </c>
       <c r="K6">
-        <v>1.026828989856274</v>
+        <v>1.028800000333351</v>
       </c>
       <c r="L6">
-        <v>0.9854897077143592</v>
+        <v>0.986312816391588</v>
       </c>
       <c r="M6">
-        <v>0.9954716097442502</v>
+        <v>0.9973341627542324</v>
+      </c>
+      <c r="N6">
+        <v>1.023294994086141</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9980264085404019</v>
+        <v>1.000620995380956</v>
       </c>
       <c r="D7">
-        <v>1.01538679277036</v>
+        <v>1.01738333236227</v>
       </c>
       <c r="E7">
-        <v>0.9732879124646782</v>
+        <v>0.9741251760196713</v>
       </c>
       <c r="F7">
-        <v>0.9827374640313232</v>
+        <v>0.9846288220078903</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042583953694245</v>
+        <v>1.043715391596997</v>
       </c>
       <c r="J7">
-        <v>1.017474624847239</v>
+        <v>1.020002744483181</v>
       </c>
       <c r="K7">
-        <v>1.025300052712572</v>
+        <v>1.027273454462902</v>
       </c>
       <c r="L7">
-        <v>0.9837166769849173</v>
+        <v>0.9845431453051691</v>
       </c>
       <c r="M7">
-        <v>0.993045723370093</v>
+        <v>0.9949133082989093</v>
+      </c>
+      <c r="N7">
+        <v>1.021451265376297</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9874995517685986</v>
+        <v>0.9901193275982837</v>
       </c>
       <c r="D8">
-        <v>1.007582450316463</v>
+        <v>1.009594083887678</v>
       </c>
       <c r="E8">
-        <v>0.9643688314801958</v>
+        <v>0.9652235977443557</v>
       </c>
       <c r="F8">
-        <v>0.970964728610009</v>
+        <v>0.9728837212638961</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038944504651079</v>
+        <v>1.040082528553356</v>
       </c>
       <c r="J8">
-        <v>1.009476685816423</v>
+        <v>1.0120180818475</v>
       </c>
       <c r="K8">
-        <v>1.018660682804577</v>
+        <v>1.020645646749422</v>
       </c>
       <c r="L8">
-        <v>0.9760541049508216</v>
+        <v>0.9768961944850537</v>
       </c>
       <c r="M8">
-        <v>0.9825529145746862</v>
+        <v>0.9844439743322501</v>
+      </c>
+      <c r="N8">
+        <v>1.01345526360382</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9673686742976989</v>
+        <v>0.9700456332498411</v>
       </c>
       <c r="D9">
-        <v>0.9926807749056535</v>
+        <v>0.9947272846623543</v>
       </c>
       <c r="E9">
-        <v>0.9474557744157586</v>
+        <v>0.9483495338375182</v>
       </c>
       <c r="F9">
-        <v>0.9485385158118178</v>
+        <v>0.9505193544574392</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031852221797126</v>
+        <v>1.033006297897413</v>
       </c>
       <c r="J9">
-        <v>0.9941287926836393</v>
+        <v>0.9967023817309325</v>
       </c>
       <c r="K9">
-        <v>1.005893728223389</v>
+        <v>1.007906491209405</v>
       </c>
       <c r="L9">
-        <v>0.9614630400238233</v>
+        <v>0.9623401445008031</v>
       </c>
       <c r="M9">
-        <v>0.9625256100954482</v>
+        <v>0.964469701049562</v>
+      </c>
+      <c r="N9">
+        <v>0.9981178134363514</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9526469413130568</v>
+        <v>0.9553739650069391</v>
       </c>
       <c r="D10">
-        <v>0.981811123127457</v>
+        <v>0.9838885628983908</v>
       </c>
       <c r="E10">
-        <v>0.935197911531956</v>
+        <v>0.9361252667875276</v>
       </c>
       <c r="F10">
-        <v>0.9321924260676471</v>
+        <v>0.9342268653671488</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026580929922762</v>
+        <v>1.027749807874284</v>
       </c>
       <c r="J10">
-        <v>0.9828739885788537</v>
+        <v>0.9854772785751487</v>
       </c>
       <c r="K10">
-        <v>0.9965167370581182</v>
+        <v>0.9985549377151368</v>
       </c>
       <c r="L10">
-        <v>0.9508448073710715</v>
+        <v>0.9517522238436936</v>
       </c>
       <c r="M10">
-        <v>0.9479043039263293</v>
+        <v>0.9498946956673712</v>
+      </c>
+      <c r="N10">
+        <v>0.9868767693465491</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9458980120655645</v>
+        <v>0.9486505696657372</v>
       </c>
       <c r="D11">
-        <v>0.9768380493352977</v>
+        <v>0.9789313504768429</v>
       </c>
       <c r="E11">
-        <v>0.9296083097791544</v>
+        <v>0.9305526650998629</v>
       </c>
       <c r="F11">
-        <v>0.9247102065067048</v>
+        <v>0.9267718759870482</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024145813057387</v>
+        <v>1.025322413824907</v>
       </c>
       <c r="J11">
-        <v>0.9777085409805155</v>
+        <v>0.9803273606306595</v>
       </c>
       <c r="K11">
-        <v>0.9922103963854177</v>
+        <v>0.9942618369261823</v>
       </c>
       <c r="L11">
-        <v>0.9459921165755361</v>
+        <v>0.9469149041812014</v>
       </c>
       <c r="M11">
-        <v>0.9412068244591413</v>
+        <v>0.9432208161313129</v>
+      </c>
+      <c r="N11">
+        <v>0.9817195379278749</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9433281352597843</v>
+        <v>0.946090871993187</v>
       </c>
       <c r="D12">
-        <v>0.9749462074069536</v>
+        <v>0.9770458440258515</v>
       </c>
       <c r="E12">
-        <v>0.9274847192255943</v>
+        <v>0.9284358310980013</v>
       </c>
       <c r="F12">
-        <v>0.9218626540387675</v>
+        <v>0.9239351653093409</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02321592394372</v>
+        <v>1.024395629187614</v>
       </c>
       <c r="J12">
-        <v>0.9757408909533236</v>
+        <v>0.9783659609162868</v>
       </c>
       <c r="K12">
-        <v>0.9905696712422606</v>
+        <v>0.9926264303958304</v>
       </c>
       <c r="L12">
-        <v>0.9441468263481555</v>
+        <v>0.9450757278757108</v>
       </c>
       <c r="M12">
-        <v>0.9386573033154599</v>
+        <v>0.9406807028023227</v>
+      </c>
+      <c r="N12">
+        <v>0.9797553528009323</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9438823566032329</v>
+        <v>0.9466428762619364</v>
       </c>
       <c r="D13">
-        <v>0.9753541155194373</v>
+        <v>0.9774523716938572</v>
       </c>
       <c r="E13">
-        <v>0.9279424698939863</v>
+        <v>0.9288921110754452</v>
       </c>
       <c r="F13">
-        <v>0.9224766921414768</v>
+        <v>0.9245468425681045</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023416580724602</v>
+        <v>1.024595608645864</v>
       </c>
       <c r="J13">
-        <v>0.976165266278452</v>
+        <v>0.9787889721907248</v>
       </c>
       <c r="K13">
-        <v>0.9909235501836449</v>
+        <v>0.9929791490880181</v>
       </c>
       <c r="L13">
-        <v>0.9445446639522215</v>
+        <v>0.9454722344576585</v>
       </c>
       <c r="M13">
-        <v>0.9392071011564449</v>
+        <v>0.9412284515480301</v>
+      </c>
+      <c r="N13">
+        <v>0.9801789647999001</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9456869144317247</v>
+        <v>0.9484402984966857</v>
       </c>
       <c r="D14">
-        <v>0.9766826087231008</v>
+        <v>0.978776424013464</v>
       </c>
       <c r="E14">
-        <v>0.9294337714062006</v>
+        <v>0.9303786757168563</v>
       </c>
       <c r="F14">
-        <v>0.924476269411852</v>
+        <v>0.9265388194137094</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024069481524528</v>
+        <v>1.025246333838734</v>
       </c>
       <c r="J14">
-        <v>0.9775469260964018</v>
+        <v>0.9801662520253756</v>
       </c>
       <c r="K14">
-        <v>0.9920756400050356</v>
+        <v>0.9941275115636999</v>
       </c>
       <c r="L14">
-        <v>0.9458404858006345</v>
+        <v>0.9467637700861583</v>
       </c>
       <c r="M14">
-        <v>0.9409973837446356</v>
+        <v>0.9430121392516543</v>
+      </c>
+      <c r="N14">
+        <v>0.9815582005298921</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9467901875268016</v>
+        <v>0.9495392711270544</v>
       </c>
       <c r="D15">
-        <v>0.9774950737759854</v>
+        <v>0.9795862142068532</v>
       </c>
       <c r="E15">
-        <v>0.9303461707207809</v>
+        <v>0.9312882175723813</v>
       </c>
       <c r="F15">
-        <v>0.9256989716099955</v>
+        <v>0.9277569393423124</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024468311918096</v>
+        <v>1.025643856346145</v>
       </c>
       <c r="J15">
-        <v>0.9783915554125184</v>
+        <v>0.9810082493228521</v>
       </c>
       <c r="K15">
-        <v>0.9927798888929723</v>
+        <v>0.9948295192886251</v>
       </c>
       <c r="L15">
-        <v>0.9466330677658376</v>
+        <v>0.9475537670525624</v>
       </c>
       <c r="M15">
-        <v>0.942092027854271</v>
+        <v>0.9441028087863294</v>
+      </c>
+      <c r="N15">
+        <v>0.9824013935601096</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9530864060084239</v>
+        <v>0.9558118255433961</v>
       </c>
       <c r="D16">
-        <v>0.9821351815841207</v>
+        <v>0.9842116265202755</v>
       </c>
       <c r="E16">
-        <v>0.935562527140794</v>
+        <v>0.9364888116952308</v>
       </c>
       <c r="F16">
-        <v>0.932679861161817</v>
+        <v>0.9347125878151892</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026739125441547</v>
+        <v>1.027907521603028</v>
       </c>
       <c r="J16">
-        <v>0.9832102338446741</v>
+        <v>0.9858125558723274</v>
       </c>
       <c r="K16">
-        <v>0.9967970089639187</v>
+        <v>0.9988343831126192</v>
       </c>
       <c r="L16">
-        <v>0.951161127633934</v>
+        <v>0.9520675766349582</v>
       </c>
       <c r="M16">
-        <v>0.9483405259278886</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9503294348662145</v>
+      </c>
+      <c r="N16">
+        <v>0.9872125227759467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9569312038978266</v>
+        <v>0.959642884725568</v>
       </c>
       <c r="D17">
-        <v>0.984971458142893</v>
+        <v>0.9870393919636903</v>
       </c>
       <c r="E17">
-        <v>0.9387558597027429</v>
+        <v>0.9396729600406694</v>
       </c>
       <c r="F17">
-        <v>0.9369456012738751</v>
+        <v>0.9389636489879872</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02812108406531</v>
+        <v>1.029285372294701</v>
       </c>
       <c r="J17">
-        <v>0.9861513407341607</v>
+        <v>0.9887454132507871</v>
       </c>
       <c r="K17">
-        <v>0.9992482251763597</v>
+        <v>1.001278548965641</v>
       </c>
       <c r="L17">
-        <v>0.9539302715112171</v>
+        <v>0.9548284252373086</v>
       </c>
       <c r="M17">
-        <v>0.9521575555119374</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9541337637424819</v>
+      </c>
+      <c r="N17">
+        <v>0.9901495451482872</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9591382078884116</v>
+        <v>0.9618422380293641</v>
       </c>
       <c r="D18">
-        <v>0.9866004501320701</v>
+        <v>0.9886636519600149</v>
       </c>
       <c r="E18">
-        <v>0.9405916602532171</v>
+        <v>0.9415036344419808</v>
       </c>
       <c r="F18">
-        <v>0.9393953071245049</v>
+        <v>0.9414051710358121</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028912617860287</v>
+        <v>1.030074633686551</v>
       </c>
       <c r="J18">
-        <v>0.9878390471572165</v>
+        <v>0.9904285589759325</v>
       </c>
       <c r="K18">
-        <v>1.00065455649342</v>
+        <v>1.00268097736784</v>
       </c>
       <c r="L18">
-        <v>0.9555212092281613</v>
+        <v>0.9564147358490332</v>
       </c>
       <c r="M18">
-        <v>0.9543491277062391</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9563182619106624</v>
+      </c>
+      <c r="N18">
+        <v>0.9918350811334218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9598848881522589</v>
+        <v>0.9625863680999323</v>
       </c>
       <c r="D19">
-        <v>0.9871517199171645</v>
+        <v>0.989213345743873</v>
       </c>
       <c r="E19">
-        <v>0.9412132112908171</v>
+        <v>0.9421234748082008</v>
       </c>
       <c r="F19">
-        <v>0.9402242849428518</v>
+        <v>0.9422314192802634</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029180112143134</v>
+        <v>1.030341373098308</v>
       </c>
       <c r="J19">
-        <v>0.9884099385116889</v>
+        <v>0.9909979357028587</v>
       </c>
       <c r="K19">
-        <v>1.001130222481248</v>
+        <v>1.003155346330857</v>
       </c>
       <c r="L19">
-        <v>0.9560596876958363</v>
+        <v>0.9569516706765735</v>
       </c>
       <c r="M19">
-        <v>0.9550906744632103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.957057450415611</v>
+      </c>
+      <c r="N19">
+        <v>0.9924052664406087</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9565224212479193</v>
+        <v>0.9592355378320913</v>
       </c>
       <c r="D20">
-        <v>0.9846698063488885</v>
+        <v>0.9867386288236555</v>
       </c>
       <c r="E20">
-        <v>0.9384160526608383</v>
+        <v>0.9393341140275996</v>
       </c>
       <c r="F20">
-        <v>0.9364919531877836</v>
+        <v>0.9385115359047664</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027974333241537</v>
+        <v>1.029139049171839</v>
       </c>
       <c r="J20">
-        <v>0.9858386964755544</v>
+        <v>0.9884336275933432</v>
       </c>
       <c r="K20">
-        <v>0.9989876835319879</v>
+        <v>1.001018741667187</v>
       </c>
       <c r="L20">
-        <v>0.9536357076198879</v>
+        <v>0.9545347290543297</v>
       </c>
       <c r="M20">
-        <v>0.9517516726723902</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9537292083172917</v>
+      </c>
+      <c r="N20">
+        <v>0.9898373167194474</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9451573174006783</v>
+        <v>0.9479127824669858</v>
       </c>
       <c r="D21">
-        <v>0.9762926731895107</v>
+        <v>0.9783877832767449</v>
       </c>
       <c r="E21">
-        <v>0.9289959723532043</v>
+        <v>0.9299422586686705</v>
       </c>
       <c r="F21">
-        <v>0.9238893975213085</v>
+        <v>0.9259541644310904</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023877940880958</v>
+        <v>1.025055426986448</v>
       </c>
       <c r="J21">
-        <v>0.9771414590027867</v>
+        <v>0.9797620606693489</v>
       </c>
       <c r="K21">
-        <v>0.9917375517766658</v>
+        <v>0.9937905092641425</v>
       </c>
       <c r="L21">
-        <v>0.945460119529124</v>
+        <v>0.9463846542115681</v>
       </c>
       <c r="M21">
-        <v>0.9404719556469198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9424886344573865</v>
+      </c>
+      <c r="N21">
+        <v>0.9811534351757785</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9376426918086318</v>
+        <v>0.940428883293981</v>
       </c>
       <c r="D22">
-        <v>0.9707645810290729</v>
+        <v>0.9728788383370277</v>
       </c>
       <c r="E22">
-        <v>0.9227960058953711</v>
+        <v>0.9237626470190251</v>
       </c>
       <c r="F22">
-        <v>0.9155655578229042</v>
+        <v>0.9176630285088054</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02115400065245</v>
+        <v>1.022340907637162</v>
       </c>
       <c r="J22">
-        <v>0.9713865990790743</v>
+        <v>0.9740261859070811</v>
       </c>
       <c r="K22">
-        <v>0.9869383296183372</v>
+        <v>0.9890074212280986</v>
       </c>
       <c r="L22">
-        <v>0.9400694382403599</v>
+        <v>0.9410124008473991</v>
       </c>
       <c r="M22">
-        <v>0.9330182447701568</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9350633235633931</v>
+      </c>
+      <c r="N22">
+        <v>0.9754094148134342</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9416639031611036</v>
+        <v>0.9444333704823132</v>
       </c>
       <c r="D23">
-        <v>0.9737216236247699</v>
+        <v>0.9758254527485669</v>
       </c>
       <c r="E23">
-        <v>0.9261109116413874</v>
+        <v>0.9270664851880025</v>
       </c>
       <c r="F23">
-        <v>0.9200190154905553</v>
+        <v>0.9220986920377212</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022613012061448</v>
+        <v>1.023794777285378</v>
       </c>
       <c r="J23">
-        <v>0.9744664688799743</v>
+        <v>0.9770956887295058</v>
       </c>
       <c r="K23">
-        <v>0.9895069117886117</v>
+        <v>0.9915671992258955</v>
       </c>
       <c r="L23">
-        <v>0.9429525823344183</v>
+        <v>0.9438855225096077</v>
       </c>
       <c r="M23">
-        <v>0.9370064620172578</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9390360822558521</v>
+      </c>
+      <c r="N23">
+        <v>0.9784832766819437</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9567072420526259</v>
+        <v>0.9594197087671742</v>
       </c>
       <c r="D24">
-        <v>0.9848061878432536</v>
+        <v>0.9868746080606086</v>
       </c>
       <c r="E24">
-        <v>0.9385696793380598</v>
+        <v>0.9394873057491355</v>
       </c>
       <c r="F24">
-        <v>0.9366970554286869</v>
+        <v>0.9387159433840805</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028040688372546</v>
+        <v>1.02920521066376</v>
       </c>
       <c r="J24">
-        <v>0.9859800524678782</v>
+        <v>0.988574594850578</v>
       </c>
       <c r="K24">
-        <v>0.999105483157835</v>
+        <v>1.001136208831253</v>
       </c>
       <c r="L24">
-        <v>0.9537688829949941</v>
+        <v>0.9546675117009339</v>
       </c>
       <c r="M24">
-        <v>0.9519351808174422</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9539121156362588</v>
+      </c>
+      <c r="N24">
+        <v>0.9899784841663568</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9727827845638836</v>
+        <v>0.9754431429059792</v>
       </c>
       <c r="D25">
-        <v>0.9966847484200574</v>
+        <v>0.9987210702983118</v>
       </c>
       <c r="E25">
-        <v>0.951986806012016</v>
+        <v>0.9528693278067143</v>
       </c>
       <c r="F25">
-        <v>0.9545603831503416</v>
+        <v>0.9565233574474754</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033774382163632</v>
+        <v>1.034923681423869</v>
       </c>
       <c r="J25">
-        <v>0.9982621642730841</v>
+        <v>1.000826179003516</v>
       </c>
       <c r="K25">
-        <v>1.009334748332183</v>
+        <v>1.011339272499247</v>
       </c>
       <c r="L25">
-        <v>0.9653791884058538</v>
+        <v>0.9662461790137461</v>
       </c>
       <c r="M25">
-        <v>0.9679075780141582</v>
+        <v>0.9698362975282746</v>
+      </c>
+      <c r="N25">
+        <v>1.002247466974068</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_63/res_bus/vm_pu.xlsx
@@ -417,336 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>0.9818889520560373</v>
+      </c>
+      <c r="D2">
+        <v>1.003919549804078</v>
+      </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
+      <c r="F2">
+        <v>0.9577560749706763</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.038505911676707</v>
+      </c>
+      <c r="J2">
+        <v>1.004625192857746</v>
+      </c>
+      <c r="K2">
+        <v>1.015324547827973</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
+      <c r="M2">
+        <v>0.9698370877408216</v>
+      </c>
+      <c r="N2">
+        <v>1.006051875863724</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>0.986968187269022</v>
+      </c>
+      <c r="D3">
+        <v>1.007542584388298</v>
+      </c>
       <c r="E3">
-        <v>0.9571825583057852</v>
+        <v>0.9571825583057848</v>
+      </c>
+      <c r="F3">
+        <v>0.9656415768072129</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.039840680273877</v>
+      </c>
+      <c r="J3">
+        <v>1.007820529031664</v>
+      </c>
+      <c r="K3">
+        <v>1.018079857594071</v>
+      </c>
       <c r="L3">
-        <v>0.9683942856474069</v>
+        <v>0.9683942856474066</v>
+      </c>
+      <c r="M3">
+        <v>0.9767338120640763</v>
+      </c>
+      <c r="N3">
+        <v>1.009251749781519</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>0.9901675763295487</v>
+      </c>
+      <c r="D4">
+        <v>1.009824065518954</v>
+      </c>
       <c r="E4">
-        <v>0.9600238894088614</v>
+        <v>0.9600238894088612</v>
+      </c>
+      <c r="F4">
+        <v>0.970596605576631</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.040663909074967</v>
+      </c>
+      <c r="J4">
+        <v>1.009826185073487</v>
+      </c>
+      <c r="K4">
+        <v>1.01980535124324</v>
+      </c>
       <c r="L4">
-        <v>0.9706300002952758</v>
+        <v>0.9706300002952756</v>
+      </c>
+      <c r="M4">
+        <v>0.9810633541347004</v>
+      </c>
+      <c r="N4">
+        <v>1.011260254084974</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>0.9914926481934564</v>
+      </c>
+      <c r="D5">
+        <v>1.010768734255235</v>
+      </c>
       <c r="E5">
-        <v>0.9612062874769893</v>
+        <v>0.9612062874769891</v>
+      </c>
+      <c r="F5">
+        <v>0.9726463935841753</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.041000584300023</v>
+      </c>
+      <c r="J5">
+        <v>1.010655143286004</v>
+      </c>
+      <c r="K5">
+        <v>1.020517519476651</v>
+      </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702912</v>
+      </c>
+      <c r="M5">
+        <v>0.9828533490437682</v>
+      </c>
+      <c r="N5">
+        <v>1.012090389513235</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>0.9917139893893162</v>
+      </c>
+      <c r="D6">
+        <v>1.01092651620425</v>
+      </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
+      <c r="F6">
+        <v>0.9729886636186942</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.041056569345546</v>
+      </c>
+      <c r="J6">
+        <v>1.010793512039975</v>
+      </c>
+      <c r="K6">
+        <v>1.020636333919019</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
+      </c>
+      <c r="M6">
+        <v>0.9831521767555411</v>
+      </c>
+      <c r="N6">
+        <v>1.012228954766709</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>0.9901853592204696</v>
+      </c>
+      <c r="D7">
+        <v>1.009836744327741</v>
+      </c>
       <c r="E7">
-        <v>0.9600397355691358</v>
+        <v>0.9600397355691357</v>
+      </c>
+      <c r="F7">
+        <v>0.9706241233104715</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.040668444372088</v>
+      </c>
+      <c r="J7">
+        <v>1.009837316754345</v>
+      </c>
+      <c r="K7">
+        <v>1.019814918608919</v>
+      </c>
       <c r="L7">
-        <v>0.9706424616290569</v>
+        <v>0.9706424616290568</v>
+      </c>
+      <c r="M7">
+        <v>0.9810873884124581</v>
+      </c>
+      <c r="N7">
+        <v>1.011271401574096</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.9836241427003966</v>
+      </c>
+      <c r="D8">
+        <v>1.005157353095838</v>
+      </c>
       <c r="E8">
-        <v>0.9542328392922296</v>
+        <v>0.9542328392922297</v>
+      </c>
+      <c r="F8">
+        <v>0.9604527909451196</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.038965551965689</v>
+      </c>
+      <c r="J8">
+        <v>1.005718278266081</v>
+      </c>
+      <c r="K8">
+        <v>1.016267915023757</v>
+      </c>
       <c r="L8">
-        <v>0.9660706434537709</v>
+        <v>0.966070643453771</v>
+      </c>
+      <c r="M8">
+        <v>0.9721965089319724</v>
+      </c>
+      <c r="N8">
+        <v>1.007146513578718</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9713489232188796</v>
+      </c>
+      <c r="D9">
+        <v>0.9964015549576033</v>
+      </c>
       <c r="E9">
-        <v>0.9435740419925934</v>
+        <v>0.9435740419925933</v>
+      </c>
+      <c r="F9">
+        <v>0.9413015873947442</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.035641443047262</v>
+      </c>
+      <c r="J9">
+        <v>0.9979556364897634</v>
+      </c>
+      <c r="K9">
+        <v>1.009553285471293</v>
+      </c>
       <c r="L9">
-        <v>0.9576541208834083</v>
+        <v>0.9576541208834081</v>
+      </c>
+      <c r="M9">
+        <v>0.9554246572404053</v>
+      </c>
+      <c r="N9">
+        <v>0.9993728479606903</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9626152436278109</v>
+      </c>
+      <c r="D10">
+        <v>0.9901770846199528</v>
+      </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547283</v>
+      </c>
+      <c r="F10">
+        <v>0.9275523713650152</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.033186887380236</v>
+      </c>
+      <c r="J10">
+        <v>0.9923948603118008</v>
+      </c>
+      <c r="K10">
+        <v>1.004725989042208</v>
+      </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689358</v>
+      </c>
+      <c r="M10">
+        <v>0.9433656722038953</v>
+      </c>
+      <c r="N10">
+        <v>0.9938041748427248</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.958684919485195</v>
+      </c>
+      <c r="D11">
+        <v>0.9873786296020445</v>
+      </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016257</v>
+      </c>
+      <c r="F11">
+        <v>0.9213248865529072</v>
       </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.032062060622116</v>
+      </c>
+      <c r="J11">
+        <v>0.9898835148510772</v>
+      </c>
+      <c r="K11">
+        <v>1.002542557282714</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
+      </c>
+      <c r="M11">
+        <v>0.9379004126926417</v>
+      </c>
+      <c r="N11">
+        <v>0.9912892629833918</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9572009536779885</v>
+      </c>
+      <c r="D12">
+        <v>0.9863225555662612</v>
+      </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
+      </c>
+      <c r="F12">
+        <v>0.9189664919595976</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.031634411867407</v>
+      </c>
+      <c r="J12">
+        <v>0.9889339755418237</v>
+      </c>
+      <c r="K12">
+        <v>1.001716570331724</v>
+      </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252507</v>
+      </c>
+      <c r="M12">
+        <v>0.9358302690980426</v>
+      </c>
+      <c r="N12">
+        <v>0.9903383752194056</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9575203887516746</v>
+      </c>
+      <c r="D13">
+        <v>0.9865498573311217</v>
+      </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
+      <c r="F13">
+        <v>0.9194744936785476</v>
+      </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.031726598266734</v>
+      </c>
+      <c r="J13">
+        <v>0.9891384315074144</v>
+      </c>
+      <c r="K13">
+        <v>1.001894441164012</v>
+      </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965215</v>
+      </c>
+      <c r="M13">
+        <v>0.9362761979881993</v>
+      </c>
+      <c r="N13">
+        <v>0.9905431215359191</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9585627562032066</v>
+      </c>
+      <c r="D14">
+        <v>0.9872916796755791</v>
+      </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
+      </c>
+      <c r="F14">
+        <v>0.921130889069774</v>
       </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.032026914988032</v>
+      </c>
+      <c r="J14">
+        <v>0.9898053738219412</v>
+      </c>
+      <c r="K14">
+        <v>1.002474592162432</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
+      </c>
+      <c r="M14">
+        <v>0.9377301339681993</v>
+      </c>
+      <c r="N14">
+        <v>0.9912110109850315</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9592017482884164</v>
+      </c>
+      <c r="D15">
+        <v>0.9877465059170282</v>
+      </c>
       <c r="E15">
-        <v>0.9332781050737294</v>
+        <v>0.9332781050717475</v>
+      </c>
+      <c r="F15">
+        <v>0.9221453246021486</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.032210629661921</v>
+      </c>
+      <c r="J15">
+        <v>0.9902140470574726</v>
+      </c>
+      <c r="K15">
+        <v>1.002830028833912</v>
+      </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9494987508767193</v>
+      </c>
+      <c r="M15">
+        <v>0.9386205252818268</v>
+      </c>
+      <c r="N15">
+        <v>0.9916202645834328</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.962872811287998</v>
+      </c>
+      <c r="D16">
+        <v>0.9903605434151544</v>
+      </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9363637346017258</v>
+      </c>
+      <c r="F16">
+        <v>0.9279595616359476</v>
       </c>
       <c r="G16">
         <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.033260188955045</v>
+      </c>
+      <c r="J16">
+        <v>0.9925592531871787</v>
+      </c>
+      <c r="K16">
+        <v>1.004868853244487</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0.9437229620351513</v>
+      </c>
+      <c r="N16">
+        <v>0.9939688011748423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9651346204272707</v>
+      </c>
+      <c r="D17">
+        <v>0.9919718897341193</v>
+      </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
+      <c r="F17">
+        <v>0.9315306206373017</v>
+      </c>
       <c r="G17">
         <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.033901601605796</v>
+      </c>
+      <c r="J17">
+        <v>0.994001850262505</v>
+      </c>
+      <c r="K17">
+        <v>1.006122160415744</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0.9468560275251858</v>
+      </c>
+      <c r="N17">
+        <v>0.9954134469034837</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9664396871430829</v>
+      </c>
+      <c r="D18">
+        <v>0.9929018819383922</v>
+      </c>
       <c r="E18">
-        <v>0.9393832867215683</v>
+        <v>0.9393832867215685</v>
+      </c>
+      <c r="F18">
+        <v>0.9335874252430126</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.034269784310331</v>
+      </c>
+      <c r="J18">
+        <v>0.994833392741728</v>
+      </c>
+      <c r="K18">
+        <v>1.006844273405413</v>
+      </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.9543373515865727</v>
+      </c>
+      <c r="M18">
+        <v>0.9486602433116877</v>
+      </c>
+      <c r="N18">
+        <v>0.9962461702684063</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9668823210367625</v>
+      </c>
+      <c r="D19">
+        <v>0.9932173409271785</v>
+      </c>
       <c r="E19">
-        <v>0.9397594814684966</v>
+        <v>0.9397594814684967</v>
+      </c>
+      <c r="F19">
+        <v>0.9342844245612629</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.034394332136492</v>
+      </c>
+      <c r="J19">
+        <v>0.9951152812295246</v>
+      </c>
+      <c r="K19">
+        <v>1.00708900979862</v>
+      </c>
       <c r="L19">
-        <v>0.9546352493816591</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.9546352493816592</v>
+      </c>
+      <c r="M19">
+        <v>0.9492715898361886</v>
+      </c>
+      <c r="N19">
+        <v>0.9965284590701888</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9648934313283309</v>
+      </c>
+      <c r="D20">
+        <v>0.9918000368666005</v>
+      </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.938071692466014</v>
+      </c>
+      <c r="F20">
+        <v>0.9311502105954413</v>
       </c>
       <c r="G20">
         <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.033833402356788</v>
+      </c>
+      <c r="J20">
+        <v>0.9938481052383844</v>
+      </c>
+      <c r="K20">
+        <v>1.005988621655154</v>
       </c>
       <c r="L20">
         <v>0.9532985019057444</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0.9465223077485407</v>
+      </c>
+      <c r="N20">
+        <v>0.9952594835437939</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9582564843992889</v>
+      </c>
+      <c r="D21">
+        <v>0.98707369924416</v>
+      </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9324872132148894</v>
+      </c>
+      <c r="F21">
+        <v>0.9206444058952192</v>
       </c>
       <c r="G21">
         <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.031938755298819</v>
+      </c>
+      <c r="J21">
+        <v>0.9896094473681514</v>
+      </c>
+      <c r="K21">
+        <v>1.002304173516784</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0.9373031235506072</v>
+      </c>
+      <c r="N21">
+        <v>0.9910148062932042</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.953943302665778</v>
+      </c>
+      <c r="D22">
+        <v>0.9840053638218086</v>
+      </c>
       <c r="E22">
         <v>0.928897295365116</v>
       </c>
+      <c r="F22">
+        <v>0.9137748674590996</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.030690289253572</v>
+      </c>
+      <c r="J22">
+        <v>0.9868470513136306</v>
+      </c>
+      <c r="K22">
+        <v>0.9999004790182617</v>
+      </c>
       <c r="L22">
-        <v>0.9460223821572514</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.9460223821572515</v>
+      </c>
+      <c r="M22">
+        <v>0.9312725403098731</v>
+      </c>
+      <c r="N22">
+        <v>0.9882484873194349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9562437349414921</v>
+      </c>
+      <c r="D23">
+        <v>0.9856415122450027</v>
+      </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963315</v>
+      </c>
+      <c r="F23">
+        <v>0.9174430835978786</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.031357740929258</v>
+      </c>
+      <c r="J23">
+        <v>0.9883211071433267</v>
+      </c>
+      <c r="K23">
+        <v>1.0011833347755</v>
+      </c>
       <c r="L23">
-        <v>0.9475391330285313</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.9475391330285319</v>
+      </c>
+      <c r="M23">
+        <v>0.9344929540786797</v>
+      </c>
+      <c r="N23">
+        <v>0.9897246364774857</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9650024580792164</v>
+      </c>
+      <c r="D24">
+        <v>0.9918777202279987</v>
+      </c>
       <c r="E24">
-        <v>0.9381640424011831</v>
+        <v>0.9381640424011829</v>
+      </c>
+      <c r="F24">
+        <v>0.9313221819788013</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.03386423698688</v>
+      </c>
+      <c r="J24">
+        <v>0.9939176065047597</v>
+      </c>
+      <c r="K24">
+        <v>1.006048989566886</v>
+      </c>
       <c r="L24">
-        <v>0.9533716596442546</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.9533716596442545</v>
+      </c>
+      <c r="M24">
+        <v>0.946673172936069</v>
+      </c>
+      <c r="N24">
+        <v>0.9953290835099394</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9746137465956274</v>
+      </c>
+      <c r="D25">
+        <v>0.9987298842223673</v>
+      </c>
       <c r="E25">
-        <v>0.9463835801718017</v>
+        <v>0.9463835801718012</v>
+      </c>
+      <c r="F25">
+        <v>0.9464131274500706</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.036541165361593</v>
+      </c>
+      <c r="J25">
+        <v>1.000026739729768</v>
+      </c>
+      <c r="K25">
+        <v>1.011347949151884</v>
+      </c>
       <c r="L25">
-        <v>0.9598754494005832</v>
+        <v>0.9598754494005829</v>
+      </c>
+      <c r="M25">
+        <v>0.9599044680459519</v>
+      </c>
+      <c r="N25">
+        <v>1.001446892404854</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_63/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9818889520560373</v>
+        <v>1.015279619371116</v>
       </c>
       <c r="D2">
-        <v>1.003919549804078</v>
+        <v>1.021040710356193</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.9577560749706763</v>
+        <v>1.013604256292397</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038505911676707</v>
+        <v>1.025974687004851</v>
       </c>
       <c r="J2">
-        <v>1.004625192857746</v>
+        <v>1.020506041757966</v>
       </c>
       <c r="K2">
-        <v>1.015324547827973</v>
+        <v>1.023879214411177</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>0.9698370877408216</v>
+        <v>1.016464909508728</v>
       </c>
       <c r="N2">
-        <v>1.006051875863724</v>
+        <v>1.021955277390941</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.986968187269022</v>
+        <v>1.016287228064566</v>
       </c>
       <c r="D3">
-        <v>1.007542584388298</v>
+        <v>1.021757400558965</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>0.9656415768072129</v>
+        <v>1.015256553053639</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039840680273877</v>
+        <v>1.02613572338924</v>
       </c>
       <c r="J3">
-        <v>1.007820529031664</v>
+        <v>1.021148288838729</v>
       </c>
       <c r="K3">
-        <v>1.018079857594071</v>
+        <v>1.024402518411296</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>0.9767338120640763</v>
+        <v>1.017919614021175</v>
       </c>
       <c r="N3">
-        <v>1.009251749781519</v>
+        <v>1.022598436536226</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9901675763295487</v>
+        <v>1.016938298029711</v>
       </c>
       <c r="D4">
-        <v>1.009824065518954</v>
+        <v>1.022219932620392</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>0.970596605576631</v>
+        <v>1.016324587441439</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040663909074967</v>
+        <v>1.026237568325745</v>
       </c>
       <c r="J4">
-        <v>1.009826185073487</v>
+        <v>1.021562406150504</v>
       </c>
       <c r="K4">
-        <v>1.01980535124324</v>
+        <v>1.024739252578872</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>0.9810633541347004</v>
+        <v>1.018859349185116</v>
       </c>
       <c r="N4">
-        <v>1.011260254084974</v>
+        <v>1.023013141942083</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9914926481934564</v>
+        <v>1.017211789047437</v>
       </c>
       <c r="D5">
-        <v>1.010768734255235</v>
+        <v>1.022414090510346</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>0.9726463935841753</v>
+        <v>1.01677333081261</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041000584300023</v>
+        <v>1.026279819722075</v>
       </c>
       <c r="J5">
-        <v>1.010655143286004</v>
+        <v>1.021736152632825</v>
       </c>
       <c r="K5">
-        <v>1.020517519476651</v>
+        <v>1.024880366265855</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>0.9828533490437682</v>
+        <v>1.01925404825016</v>
       </c>
       <c r="N5">
-        <v>1.012090389513235</v>
+        <v>1.023187135164339</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9917139893893162</v>
+        <v>1.017257696605926</v>
       </c>
       <c r="D6">
-        <v>1.01092651620425</v>
+        <v>1.022446673437919</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>0.9729886636186942</v>
+        <v>1.016848661883474</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041056569345546</v>
+        <v>1.026286880828537</v>
       </c>
       <c r="J6">
-        <v>1.010793512039975</v>
+        <v>1.02176530502709</v>
       </c>
       <c r="K6">
-        <v>1.020636333919019</v>
+        <v>1.024904033534405</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>0.9831521767555411</v>
+        <v>1.01932029872064</v>
       </c>
       <c r="N6">
-        <v>1.012228954766709</v>
+        <v>1.023216328958347</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9901853592204696</v>
+        <v>1.016941953287956</v>
       </c>
       <c r="D7">
-        <v>1.009836744327741</v>
+        <v>1.022222528109318</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>0.9706241233104715</v>
+        <v>1.0163305845774</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040668444372088</v>
+        <v>1.026238135108109</v>
       </c>
       <c r="J7">
-        <v>1.009837316754345</v>
+        <v>1.02156472912746</v>
       </c>
       <c r="K7">
-        <v>1.019814918608919</v>
+        <v>1.024741139912138</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>0.9810873884124581</v>
+        <v>1.018864624601399</v>
       </c>
       <c r="N7">
-        <v>1.011271401574096</v>
+        <v>1.023015468217933</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9836241427003966</v>
+        <v>1.015620336904306</v>
       </c>
       <c r="D8">
-        <v>1.005157353095838</v>
+        <v>1.021283170716676</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>0.9604527909451196</v>
+        <v>1.014162892788172</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038965551965689</v>
+        <v>1.026029597855483</v>
       </c>
       <c r="J8">
-        <v>1.005718278266081</v>
+        <v>1.020723394955062</v>
       </c>
       <c r="K8">
-        <v>1.016267915023757</v>
+        <v>1.024056456632299</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>0.9721965089319724</v>
+        <v>1.016956860037399</v>
       </c>
       <c r="N8">
-        <v>1.007146513578718</v>
+        <v>1.022172939254508</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9713489232188796</v>
+        <v>1.013284362901566</v>
       </c>
       <c r="D9">
-        <v>0.9964015549576033</v>
+        <v>1.019618593493405</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9413015873947442</v>
+        <v>1.010334267894711</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035641443047262</v>
+        <v>1.025644084639166</v>
       </c>
       <c r="J9">
-        <v>0.9979556364897634</v>
+        <v>1.019229633780589</v>
       </c>
       <c r="K9">
-        <v>1.009553285471293</v>
+        <v>1.022835552181105</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9554246572404053</v>
+        <v>1.013582908378075</v>
       </c>
       <c r="N9">
-        <v>0.9993728479606903</v>
+        <v>1.02067705676783</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9626152436278109</v>
+        <v>1.0117221609921</v>
       </c>
       <c r="D10">
-        <v>0.9901770846199528</v>
+        <v>1.018502599671376</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9275523713650152</v>
+        <v>1.007775381769413</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033186887380236</v>
+        <v>1.025374945575503</v>
       </c>
       <c r="J10">
-        <v>0.9923948603118008</v>
+        <v>1.018226181113466</v>
       </c>
       <c r="K10">
-        <v>1.004725989042208</v>
+        <v>1.022011901804862</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9433656722038953</v>
+        <v>1.011324950350499</v>
       </c>
       <c r="N10">
-        <v>0.9938041748427248</v>
+        <v>1.019672179082823</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.958684919485195</v>
+        <v>1.011044527780292</v>
       </c>
       <c r="D11">
-        <v>0.9873786296020445</v>
+        <v>1.018017868420655</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9213248865529072</v>
+        <v>1.00666570882549</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032062060622116</v>
+        <v>1.025255527711981</v>
       </c>
       <c r="J11">
-        <v>0.9898835148510772</v>
+        <v>1.017789853780064</v>
       </c>
       <c r="K11">
-        <v>1.002542557282714</v>
+        <v>1.021652940400705</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9379004126926417</v>
+        <v>1.010345078425815</v>
       </c>
       <c r="N11">
-        <v>0.9912892629833918</v>
+        <v>1.01923523211456</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9572009536779885</v>
+        <v>1.010792643755041</v>
       </c>
       <c r="D12">
-        <v>0.9863225555662612</v>
+        <v>1.017837591922212</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9189664919595976</v>
+        <v>1.006253267956569</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031634411867407</v>
+        <v>1.025210737929175</v>
       </c>
       <c r="J12">
-        <v>0.9889339755418237</v>
+        <v>1.017627506607879</v>
       </c>
       <c r="K12">
-        <v>1.001716570331724</v>
+        <v>1.021519257503279</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9358302690980426</v>
+        <v>1.009980777141811</v>
       </c>
       <c r="N12">
-        <v>0.9903383752194056</v>
+        <v>1.019072654390769</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9575203887516746</v>
+        <v>1.010846681953858</v>
       </c>
       <c r="D13">
-        <v>0.9865498573311217</v>
+        <v>1.017876272067556</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9194744936785476</v>
+        <v>1.006341749797939</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031726598266734</v>
+        <v>1.025220365071547</v>
       </c>
       <c r="J13">
-        <v>0.9891384315074144</v>
+        <v>1.017662343130792</v>
       </c>
       <c r="K13">
-        <v>1.001894441164012</v>
+        <v>1.021547948728697</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9362761979881993</v>
+        <v>1.01005893622053</v>
       </c>
       <c r="N13">
-        <v>0.9905431215359191</v>
+        <v>1.019107540385541</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9585627562032066</v>
+        <v>1.01102371067074</v>
       </c>
       <c r="D14">
-        <v>0.9872916796755791</v>
+        <v>1.018002971317369</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.921130889069774</v>
+        <v>1.006631621673526</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032026914988032</v>
+        <v>1.025251834201871</v>
       </c>
       <c r="J14">
-        <v>0.9898053738219412</v>
+        <v>1.017776439746519</v>
       </c>
       <c r="K14">
-        <v>1.002474592162432</v>
+        <v>1.021641897247723</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9377301339681993</v>
+        <v>1.010314972015242</v>
       </c>
       <c r="N14">
-        <v>0.9912110109850315</v>
+        <v>1.019221799031549</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9592017482884164</v>
+        <v>1.011132759872174</v>
       </c>
       <c r="D15">
-        <v>0.9877465059170282</v>
+        <v>1.018081004977385</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9221453246021486</v>
+        <v>1.006810186698544</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032210629661921</v>
+        <v>1.025271166033671</v>
       </c>
       <c r="J15">
-        <v>0.9902140470574726</v>
+        <v>1.017846701849748</v>
       </c>
       <c r="K15">
-        <v>1.002830028833912</v>
+        <v>1.021699735807404</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9386205252818268</v>
+        <v>1.010472679707145</v>
       </c>
       <c r="N15">
-        <v>0.9916202645834328</v>
+        <v>1.019292160915024</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.962872811287998</v>
+        <v>1.011767108030913</v>
       </c>
       <c r="D16">
-        <v>0.9903605434151544</v>
+        <v>1.018534738065638</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9279595616359476</v>
+        <v>1.007848991335323</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033260188955045</v>
+        <v>1.025382810278583</v>
       </c>
       <c r="J16">
-        <v>0.9925592531871787</v>
+        <v>1.01825510013021</v>
       </c>
       <c r="K16">
-        <v>1.004868853244487</v>
+        <v>1.022035676042071</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9437229620351513</v>
+        <v>1.011389934962818</v>
       </c>
       <c r="N16">
-        <v>0.9939688011748423</v>
+        <v>1.019701139167888</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9651346204272707</v>
+        <v>1.012164697889622</v>
       </c>
       <c r="D17">
-        <v>0.9919718897341193</v>
+        <v>1.018818951231194</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>0.9315306206373017</v>
+        <v>1.008500155167841</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033901601605796</v>
+        <v>1.025452070904792</v>
       </c>
       <c r="J17">
-        <v>0.994001850262505</v>
+        <v>1.018510787750605</v>
       </c>
       <c r="K17">
-        <v>1.006122160415744</v>
+        <v>1.022245782037465</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>0.9468560275251858</v>
+        <v>1.011964720338567</v>
       </c>
       <c r="N17">
-        <v>0.9954134469034837</v>
+        <v>1.019957189894031</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9664396871430829</v>
+        <v>1.012396490709975</v>
       </c>
       <c r="D18">
-        <v>0.9929018819383922</v>
+        <v>1.018984583415254</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>0.9335874252430126</v>
+        <v>1.00887980867141</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034269784310331</v>
+        <v>1.025492191698699</v>
       </c>
       <c r="J18">
-        <v>0.994833392741728</v>
+        <v>1.01865974996191</v>
       </c>
       <c r="K18">
-        <v>1.006844273405413</v>
+        <v>1.022368109967625</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>0.9486602433116877</v>
+        <v>1.012299774979522</v>
       </c>
       <c r="N18">
-        <v>0.9962461702684063</v>
+        <v>1.020106363648763</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9668823210367625</v>
+        <v>1.012475506695347</v>
       </c>
       <c r="D19">
-        <v>0.9932173409271785</v>
+        <v>1.019041035208884</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>0.9342844245612629</v>
+        <v>1.009009233972017</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034394332136492</v>
+        <v>1.025505824744233</v>
       </c>
       <c r="J19">
-        <v>0.9951152812295246</v>
+        <v>1.01871051240904</v>
       </c>
       <c r="K19">
-        <v>1.00708900979862</v>
+        <v>1.022409782771057</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>0.9492715898361886</v>
+        <v>1.012413984939175</v>
       </c>
       <c r="N19">
-        <v>0.9965284590701888</v>
+        <v>1.02015719818439</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9648934313283309</v>
+        <v>1.01212205213272</v>
       </c>
       <c r="D20">
-        <v>0.9918000368666005</v>
+        <v>1.018788472804418</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360677</v>
       </c>
       <c r="F20">
-        <v>0.9311502105954413</v>
+        <v>1.008430308005636</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033833402356788</v>
+        <v>1.025444668626285</v>
       </c>
       <c r="J20">
-        <v>0.9938481052383844</v>
+        <v>1.018483373110057</v>
       </c>
       <c r="K20">
-        <v>1.005988621655154</v>
+        <v>1.022223262760285</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.9465223077485407</v>
+        <v>1.011903072879706</v>
       </c>
       <c r="N20">
-        <v>0.9952594835437939</v>
+        <v>1.019929736321549</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9582564843992889</v>
+        <v>1.010971585136685</v>
       </c>
       <c r="D21">
-        <v>0.98707369924416</v>
+        <v>1.01796566778229</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9206444058952192</v>
+        <v>1.006546268857666</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031938755298819</v>
+        <v>1.025242579272493</v>
       </c>
       <c r="J21">
-        <v>0.9896094473681514</v>
+        <v>1.017742848761687</v>
       </c>
       <c r="K21">
-        <v>1.002304173516784</v>
+        <v>1.0216142413814</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.9373031235506072</v>
+        <v>1.010239585122615</v>
       </c>
       <c r="N21">
-        <v>0.9910148062932042</v>
+        <v>1.019188160343665</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.953943302665778</v>
+        <v>1.010247193267747</v>
       </c>
       <c r="D22">
-        <v>0.9840053638218086</v>
+        <v>1.017447031295701</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9137748674590996</v>
+        <v>1.005360195684187</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030690289253572</v>
+        <v>1.025113014284694</v>
       </c>
       <c r="J22">
-        <v>0.9868470513136306</v>
+        <v>1.017275655421572</v>
       </c>
       <c r="K22">
-        <v>0.9999004790182617</v>
+        <v>1.021229307879892</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.9312725403098731</v>
+        <v>1.009191752151536</v>
       </c>
       <c r="N22">
-        <v>0.9882484873194349</v>
+        <v>1.018720303535419</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9562437349414921</v>
+        <v>1.010631307138359</v>
       </c>
       <c r="D23">
-        <v>0.9856415122450027</v>
+        <v>1.017722094337535</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9174430835978786</v>
+        <v>1.005989101267055</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031357740929258</v>
+        <v>1.025181936484263</v>
       </c>
       <c r="J23">
-        <v>0.9883211071433267</v>
+        <v>1.017523475262638</v>
       </c>
       <c r="K23">
-        <v>1.0011833347755</v>
+        <v>1.021433559928354</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>0.9344929540786797</v>
+        <v>1.009747414251442</v>
       </c>
       <c r="N23">
-        <v>0.9897246364774857</v>
+        <v>1.018968475309085</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9650024580792164</v>
+        <v>1.012141322268741</v>
       </c>
       <c r="D24">
-        <v>0.9918777202279987</v>
+        <v>1.018802245140287</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9313221819788013</v>
+        <v>1.008461869423214</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03386423698688</v>
+        <v>1.025448014255595</v>
       </c>
       <c r="J24">
-        <v>0.9939176065047597</v>
+        <v>1.018495761150032</v>
       </c>
       <c r="K24">
-        <v>1.006048989566886</v>
+        <v>1.022233438942453</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>0.946673172936069</v>
+        <v>1.011930929354579</v>
       </c>
       <c r="N24">
-        <v>0.9953290835099394</v>
+        <v>1.019942141953962</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9746137465956274</v>
+        <v>1.013889121857044</v>
       </c>
       <c r="D25">
-        <v>0.9987298842223673</v>
+        <v>1.020050031416563</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>0.9464131274500706</v>
+        <v>1.011325162436934</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036541165361593</v>
+        <v>1.025745887129323</v>
       </c>
       <c r="J25">
-        <v>1.000026739729768</v>
+        <v>1.019617143543852</v>
       </c>
       <c r="K25">
-        <v>1.011347949151884</v>
+        <v>1.023152895198623</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>0.9599044680459519</v>
+        <v>1.014456649401944</v>
       </c>
       <c r="N25">
-        <v>1.001446892404854</v>
+        <v>1.021065116839406</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_63/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015279619371116</v>
+        <v>0.9818889520560367</v>
       </c>
       <c r="D2">
-        <v>1.021040710356193</v>
+        <v>1.003919549804076</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.013604256292397</v>
+        <v>0.9577560749706756</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.025974687004851</v>
+        <v>1.038505911676706</v>
       </c>
       <c r="J2">
-        <v>1.020506041757966</v>
+        <v>1.004625192857745</v>
       </c>
       <c r="K2">
-        <v>1.023879214411177</v>
+        <v>1.015324547827972</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.016464909508728</v>
+        <v>0.9698370877408208</v>
       </c>
       <c r="N2">
-        <v>1.021955277390941</v>
+        <v>1.006051875863723</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016287228064566</v>
+        <v>0.9869681872690216</v>
       </c>
       <c r="D3">
-        <v>1.021757400558965</v>
+        <v>1.007542584388298</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.015256553053639</v>
+        <v>0.9656415768072123</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.02613572338924</v>
+        <v>1.039840680273877</v>
       </c>
       <c r="J3">
-        <v>1.021148288838729</v>
+        <v>1.007820529031663</v>
       </c>
       <c r="K3">
-        <v>1.024402518411296</v>
+        <v>1.018079857594071</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.017919614021175</v>
+        <v>0.9767338120640756</v>
       </c>
       <c r="N3">
-        <v>1.022598436536226</v>
+        <v>1.009251749781519</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016938298029711</v>
+        <v>0.9901675763295482</v>
       </c>
       <c r="D4">
-        <v>1.022219932620392</v>
+        <v>1.009824065518953</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.016324587441439</v>
+        <v>0.9705966055766309</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.026237568325745</v>
+        <v>1.040663909074967</v>
       </c>
       <c r="J4">
-        <v>1.021562406150504</v>
+        <v>1.009826185073487</v>
       </c>
       <c r="K4">
-        <v>1.024739252578872</v>
+        <v>1.019805351243239</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.018859349185116</v>
+        <v>0.9810633541347002</v>
       </c>
       <c r="N4">
-        <v>1.023013141942083</v>
+        <v>1.011260254084973</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017211789047437</v>
+        <v>0.991492648193455</v>
       </c>
       <c r="D5">
-        <v>1.022414090510346</v>
+        <v>1.010768734255234</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.01677333081261</v>
+        <v>0.9726463935841747</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026279819722075</v>
+        <v>1.041000584300023</v>
       </c>
       <c r="J5">
-        <v>1.021736152632825</v>
+        <v>1.010655143286003</v>
       </c>
       <c r="K5">
-        <v>1.024880366265855</v>
+        <v>1.02051751947665</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.01925404825016</v>
+        <v>0.9828533490437675</v>
       </c>
       <c r="N5">
-        <v>1.023187135164339</v>
+        <v>1.012090389513234</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017257696605926</v>
+        <v>0.9917139893893167</v>
       </c>
       <c r="D6">
-        <v>1.022446673437919</v>
+        <v>1.010926516204251</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.016848661883474</v>
+        <v>0.9729886636186947</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.026286880828537</v>
+        <v>1.041056569345546</v>
       </c>
       <c r="J6">
-        <v>1.02176530502709</v>
+        <v>1.010793512039976</v>
       </c>
       <c r="K6">
-        <v>1.024904033534405</v>
+        <v>1.020636333919019</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.01932029872064</v>
+        <v>0.9831521767555418</v>
       </c>
       <c r="N6">
-        <v>1.023216328958347</v>
+        <v>1.012228954766709</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016941953287956</v>
+        <v>0.99018535922047</v>
       </c>
       <c r="D7">
-        <v>1.022222528109318</v>
+        <v>1.009836744327741</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.0163305845774</v>
+        <v>0.9706241233104722</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.026238135108109</v>
+        <v>1.040668444372088</v>
       </c>
       <c r="J7">
-        <v>1.02156472912746</v>
+        <v>1.009837316754345</v>
       </c>
       <c r="K7">
-        <v>1.024741139912138</v>
+        <v>1.019814918608919</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.018864624601399</v>
+        <v>0.9810873884124586</v>
       </c>
       <c r="N7">
-        <v>1.023015468217933</v>
+        <v>1.011271401574096</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015620336904306</v>
+        <v>0.9836241427003973</v>
       </c>
       <c r="D8">
-        <v>1.021283170716676</v>
+        <v>1.005157353095839</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.014162892788172</v>
+        <v>0.9604527909451208</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026029597855483</v>
+        <v>1.03896555196569</v>
       </c>
       <c r="J8">
-        <v>1.020723394955062</v>
+        <v>1.005718278266082</v>
       </c>
       <c r="K8">
-        <v>1.024056456632299</v>
+        <v>1.016267915023758</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.016956860037399</v>
+        <v>0.9721965089319733</v>
       </c>
       <c r="N8">
-        <v>1.022172939254508</v>
+        <v>1.007146513578719</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.013284362901566</v>
+        <v>0.9713489232188803</v>
       </c>
       <c r="D9">
-        <v>1.019618593493405</v>
+        <v>0.9964015549576037</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.010334267894711</v>
+        <v>0.9413015873947445</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025644084639166</v>
+        <v>1.035641443047262</v>
       </c>
       <c r="J9">
-        <v>1.019229633780589</v>
+        <v>0.997955636489764</v>
       </c>
       <c r="K9">
-        <v>1.022835552181105</v>
+        <v>1.009553285471293</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.013582908378075</v>
+        <v>0.9554246572404053</v>
       </c>
       <c r="N9">
-        <v>1.02067705676783</v>
+        <v>0.9993728479606908</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.0117221609921</v>
+        <v>0.9626152436278116</v>
       </c>
       <c r="D10">
-        <v>1.018502599671376</v>
+        <v>0.9901770846199532</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.007775381769413</v>
+        <v>0.9275523713650161</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025374945575503</v>
+        <v>1.033186887380237</v>
       </c>
       <c r="J10">
-        <v>1.018226181113466</v>
+        <v>0.9923948603118012</v>
       </c>
       <c r="K10">
-        <v>1.022011901804862</v>
+        <v>1.004725989042208</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.011324950350499</v>
+        <v>0.9433656722038962</v>
       </c>
       <c r="N10">
-        <v>1.019672179082823</v>
+        <v>0.9938041748427255</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.011044527780292</v>
+        <v>0.9586849194851937</v>
       </c>
       <c r="D11">
-        <v>1.018017868420655</v>
+        <v>0.9873786296020429</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.00666570882549</v>
+        <v>0.9213248865529058</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025255527711981</v>
+        <v>1.032062060622116</v>
       </c>
       <c r="J11">
-        <v>1.017789853780064</v>
+        <v>0.9898835148510761</v>
       </c>
       <c r="K11">
-        <v>1.021652940400705</v>
+        <v>1.002542557282712</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.010345078425815</v>
+        <v>0.9379004126926402</v>
       </c>
       <c r="N11">
-        <v>1.01923523211456</v>
+        <v>0.9912892629833906</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.010792643755041</v>
+        <v>0.9572009536779892</v>
       </c>
       <c r="D12">
-        <v>1.017837591922212</v>
+        <v>0.9863225555662618</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.006253267956569</v>
+        <v>0.9189664919595987</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025210737929175</v>
+        <v>1.031634411867408</v>
       </c>
       <c r="J12">
-        <v>1.017627506607879</v>
+        <v>0.9889339755418244</v>
       </c>
       <c r="K12">
-        <v>1.021519257503279</v>
+        <v>1.001716570331725</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.009980777141811</v>
+        <v>0.9358302690980435</v>
       </c>
       <c r="N12">
-        <v>1.019072654390769</v>
+        <v>0.9903383752194062</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.010846681953858</v>
+        <v>0.9575203887516756</v>
       </c>
       <c r="D13">
-        <v>1.017876272067556</v>
+        <v>0.9865498573311223</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.006341749797939</v>
+        <v>0.9194744936785492</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025220365071547</v>
+        <v>1.031726598266735</v>
       </c>
       <c r="J13">
-        <v>1.017662343130792</v>
+        <v>0.9891384315074154</v>
       </c>
       <c r="K13">
-        <v>1.021547948728697</v>
+        <v>1.001894441164013</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.01005893622053</v>
+        <v>0.9362761979882006</v>
       </c>
       <c r="N13">
-        <v>1.019107540385541</v>
+        <v>0.9905431215359197</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.01102371067074</v>
+        <v>0.9585627562032067</v>
       </c>
       <c r="D14">
-        <v>1.018002971317369</v>
+        <v>0.9872916796755792</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.006631621673526</v>
+        <v>0.9211308890697744</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025251834201871</v>
+        <v>1.032026914988032</v>
       </c>
       <c r="J14">
-        <v>1.017776439746519</v>
+        <v>0.9898053738219414</v>
       </c>
       <c r="K14">
-        <v>1.021641897247723</v>
+        <v>1.002474592162432</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.010314972015242</v>
+        <v>0.9377301339681998</v>
       </c>
       <c r="N14">
-        <v>1.019221799031549</v>
+        <v>0.9912110109850315</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.011132759872174</v>
+        <v>0.9592017482884169</v>
       </c>
       <c r="D15">
-        <v>1.018081004977385</v>
+        <v>0.9877465059170287</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.933278105071747</v>
       </c>
       <c r="F15">
-        <v>1.006810186698544</v>
+        <v>0.9221453246021495</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025271166033671</v>
+        <v>1.032210629661921</v>
       </c>
       <c r="J15">
-        <v>1.017846701849748</v>
+        <v>0.9902140470574732</v>
       </c>
       <c r="K15">
-        <v>1.021699735807404</v>
+        <v>1.002830028833913</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.010472679707145</v>
+        <v>0.9386205252818277</v>
       </c>
       <c r="N15">
-        <v>1.019292160915024</v>
+        <v>0.9916202645834333</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.011767108030913</v>
+        <v>0.9628728112879978</v>
       </c>
       <c r="D16">
-        <v>1.018534738065638</v>
+        <v>0.9903605434151543</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.007848991335323</v>
+        <v>0.9279595616359476</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025382810278583</v>
+        <v>1.033260188955045</v>
       </c>
       <c r="J16">
-        <v>1.01825510013021</v>
+        <v>0.9925592531871786</v>
       </c>
       <c r="K16">
-        <v>1.022035676042071</v>
+        <v>1.004868853244487</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175718</v>
       </c>
       <c r="M16">
-        <v>1.011389934962818</v>
+        <v>0.9437229620351512</v>
       </c>
       <c r="N16">
-        <v>1.019701139167888</v>
+        <v>0.9939688011748423</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.012164697889622</v>
+        <v>0.9651346204272713</v>
       </c>
       <c r="D17">
-        <v>1.018818951231194</v>
+        <v>0.9919718897341198</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.008500155167841</v>
+        <v>0.931530620637302</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025452070904792</v>
+        <v>1.033901601605796</v>
       </c>
       <c r="J17">
-        <v>1.018510787750605</v>
+        <v>0.9940018502625055</v>
       </c>
       <c r="K17">
-        <v>1.022245782037465</v>
+        <v>1.006122160415744</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068055</v>
       </c>
       <c r="M17">
-        <v>1.011964720338567</v>
+        <v>0.9468560275251862</v>
       </c>
       <c r="N17">
-        <v>1.019957189894031</v>
+        <v>0.9954134469034841</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.012396490709975</v>
+        <v>0.9664396871430833</v>
       </c>
       <c r="D18">
-        <v>1.018984583415254</v>
+        <v>0.9929018819383926</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.9393832867215683</v>
       </c>
       <c r="F18">
-        <v>1.00887980867141</v>
+        <v>0.9335874252430131</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025492191698699</v>
+        <v>1.034269784310331</v>
       </c>
       <c r="J18">
-        <v>1.01865974996191</v>
+        <v>0.9948333927417283</v>
       </c>
       <c r="K18">
-        <v>1.022368109967625</v>
+        <v>1.006844273405414</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>1.012299774979522</v>
+        <v>0.9486602433116881</v>
       </c>
       <c r="N18">
-        <v>1.020106363648763</v>
+        <v>0.9962461702684068</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012475506695347</v>
+        <v>0.9668823210367612</v>
       </c>
       <c r="D19">
-        <v>1.019041035208884</v>
+        <v>0.9932173409271775</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>1.009009233972017</v>
+        <v>0.934284424561261</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025505824744233</v>
+        <v>1.034394332136491</v>
       </c>
       <c r="J19">
-        <v>1.01871051240904</v>
+        <v>0.9951152812295235</v>
       </c>
       <c r="K19">
-        <v>1.022409782771057</v>
+        <v>1.007089009798619</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.9546352493816593</v>
       </c>
       <c r="M19">
-        <v>1.012413984939175</v>
+        <v>0.9492715898361865</v>
       </c>
       <c r="N19">
-        <v>1.02015719818439</v>
+        <v>0.9965284590701875</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.01212205213272</v>
+        <v>0.9648934313283309</v>
       </c>
       <c r="D20">
-        <v>1.018788472804418</v>
+        <v>0.9918000368666002</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360677</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.008430308005636</v>
+        <v>0.9311502105954415</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025444668626285</v>
+        <v>1.033833402356788</v>
       </c>
       <c r="J20">
-        <v>1.018483373110057</v>
+        <v>0.9938481052383843</v>
       </c>
       <c r="K20">
-        <v>1.022223262760285</v>
+        <v>1.005988621655154</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.011903072879706</v>
+        <v>0.9465223077485407</v>
       </c>
       <c r="N20">
-        <v>1.019929736321549</v>
+        <v>0.9952594835437939</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.010971585136685</v>
+        <v>0.9582564843992878</v>
       </c>
       <c r="D21">
-        <v>1.01796566778229</v>
+        <v>0.9870736992441586</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.006546268857666</v>
+        <v>0.9206444058952173</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025242579272493</v>
+        <v>1.031938755298818</v>
       </c>
       <c r="J21">
-        <v>1.017742848761687</v>
+        <v>0.9896094473681499</v>
       </c>
       <c r="K21">
-        <v>1.0216142413814</v>
+        <v>1.002304173516783</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.010239585122615</v>
+        <v>0.9373031235506053</v>
       </c>
       <c r="N21">
-        <v>1.019188160343665</v>
+        <v>0.9910148062932028</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.010247193267747</v>
+        <v>0.9539433026657776</v>
       </c>
       <c r="D22">
-        <v>1.017447031295701</v>
+        <v>0.984005363821808</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.005360195684187</v>
+        <v>0.9137748674590994</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025113014284694</v>
+        <v>1.030690289253572</v>
       </c>
       <c r="J22">
-        <v>1.017275655421572</v>
+        <v>0.9868470513136303</v>
       </c>
       <c r="K22">
-        <v>1.021229307879892</v>
+        <v>0.9999004790182611</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.009191752151536</v>
+        <v>0.9312725403098729</v>
       </c>
       <c r="N22">
-        <v>1.018720303535419</v>
+        <v>0.9882484873194346</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.010631307138359</v>
+        <v>0.9562437349414925</v>
       </c>
       <c r="D23">
-        <v>1.017722094337535</v>
+        <v>0.9856415122450028</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.005989101267055</v>
+        <v>0.9174430835978796</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025181936484263</v>
+        <v>1.031357740929258</v>
       </c>
       <c r="J23">
-        <v>1.017523475262638</v>
+        <v>0.9883211071433271</v>
       </c>
       <c r="K23">
-        <v>1.021433559928354</v>
+        <v>1.0011833347755</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.009747414251442</v>
+        <v>0.9344929540786808</v>
       </c>
       <c r="N23">
-        <v>1.018968475309085</v>
+        <v>0.9897246364774861</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.012141322268741</v>
+        <v>0.9650024580792171</v>
       </c>
       <c r="D24">
-        <v>1.018802245140287</v>
+        <v>0.9918777202279997</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.008461869423214</v>
+        <v>0.9313221819788021</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025448014255595</v>
+        <v>1.03386423698688</v>
       </c>
       <c r="J24">
-        <v>1.018495761150032</v>
+        <v>0.9939176065047607</v>
       </c>
       <c r="K24">
-        <v>1.022233438942453</v>
+        <v>1.006048989566887</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.011930929354579</v>
+        <v>0.9466731729360697</v>
       </c>
       <c r="N24">
-        <v>1.019942141953962</v>
+        <v>0.9953290835099405</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.013889121857044</v>
+        <v>0.9746137465956264</v>
       </c>
       <c r="D25">
-        <v>1.020050031416563</v>
+        <v>0.9987298842223661</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.011325162436934</v>
+        <v>0.9464131274500698</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025745887129323</v>
+        <v>1.036541165361592</v>
       </c>
       <c r="J25">
-        <v>1.019617143543852</v>
+        <v>1.000026739729767</v>
       </c>
       <c r="K25">
-        <v>1.023152895198623</v>
+        <v>1.011347949151883</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.014456649401944</v>
+        <v>0.9599044680459509</v>
       </c>
       <c r="N25">
-        <v>1.021065116839406</v>
+        <v>1.001446892404854</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_63/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9818889520560367</v>
+        <v>1.029219420570821</v>
       </c>
       <c r="D2">
-        <v>1.003919549804076</v>
+        <v>1.046065203450192</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9577560749706756</v>
+        <v>1.049619523577808</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038505911676706</v>
+        <v>1.062479055068783</v>
       </c>
       <c r="J2">
-        <v>1.004625192857745</v>
+        <v>1.050559974320363</v>
       </c>
       <c r="K2">
-        <v>1.015324547827972</v>
+        <v>1.056918019347609</v>
       </c>
       <c r="L2">
-        <v>0.964870170840339</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9698370877408208</v>
+        <v>1.060428296564845</v>
       </c>
       <c r="N2">
-        <v>1.006051875863723</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.020412417096298</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.056397162469056</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.051316113438854</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9869681872690216</v>
+        <v>1.032934733708879</v>
       </c>
       <c r="D3">
-        <v>1.007542584388298</v>
+        <v>1.048583779786823</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9656415768072123</v>
+        <v>1.052207527422479</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039840680273877</v>
+        <v>1.063575810862817</v>
       </c>
       <c r="J3">
-        <v>1.007820529031663</v>
+        <v>1.052566126833187</v>
       </c>
       <c r="K3">
-        <v>1.018079857594071</v>
+        <v>1.05863058650017</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474063</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.9767338120640756</v>
+        <v>1.062213294567003</v>
       </c>
       <c r="N3">
-        <v>1.009251749781519</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.021101555105206</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.057809837125458</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.052524387103669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9901675763295482</v>
+        <v>1.035296482303335</v>
       </c>
       <c r="D4">
-        <v>1.009824065518953</v>
+        <v>1.050188587149307</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088611</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9705966055766309</v>
+        <v>1.053858972806305</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040663909074967</v>
+        <v>1.064264114501186</v>
       </c>
       <c r="J4">
-        <v>1.009826185073487</v>
+        <v>1.053838454553711</v>
       </c>
       <c r="K4">
-        <v>1.019805351243239</v>
+        <v>1.059716786509397</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952755</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>0.9810633541347002</v>
+        <v>1.063348080570568</v>
       </c>
       <c r="N4">
-        <v>1.011260254084973</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.021538861330447</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.058707922731264</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.053293277615967</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.991492648193455</v>
+        <v>1.03628403810989</v>
       </c>
       <c r="D5">
-        <v>1.010768734255234</v>
+        <v>1.050862499186101</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>0.9726463935841747</v>
+        <v>1.054551570283729</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041000584300023</v>
+        <v>1.064551527154187</v>
       </c>
       <c r="J5">
-        <v>1.010655143286003</v>
+        <v>1.054371724396567</v>
       </c>
       <c r="K5">
-        <v>1.02051751947665</v>
+        <v>1.060173295266859</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>0.9828533490437675</v>
+        <v>1.063824109312765</v>
       </c>
       <c r="N5">
-        <v>1.012090389513234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.021723321061626</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.05908465826177</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.05362309799813</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9917139893893167</v>
+        <v>1.036454778854191</v>
       </c>
       <c r="D6">
-        <v>1.010926516204251</v>
+        <v>1.05098147243016</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>0.9729886636186947</v>
+        <v>1.054672091614656</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041056569345546</v>
+        <v>1.064603239911181</v>
       </c>
       <c r="J6">
-        <v>1.010793512039976</v>
+        <v>1.054466284711883</v>
       </c>
       <c r="K6">
-        <v>1.020636333919019</v>
+        <v>1.060255740520313</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>0.9831521767555418</v>
+        <v>1.063908259921735</v>
       </c>
       <c r="N6">
-        <v>1.012228954766709</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.021757382698286</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.059151256163075</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.05368997851879</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.99018535922047</v>
+        <v>1.035324522226689</v>
       </c>
       <c r="D7">
-        <v>1.009836744327741</v>
+        <v>1.050214164257172</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>0.9706241233104722</v>
+        <v>1.053880470946119</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040668444372088</v>
+        <v>1.064278050321502</v>
       </c>
       <c r="J7">
-        <v>1.009837316754345</v>
+        <v>1.053860064624415</v>
       </c>
       <c r="K7">
-        <v>1.019814918608919</v>
+        <v>1.059739279093799</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>0.9810873884124586</v>
+        <v>1.063366552713454</v>
       </c>
       <c r="N7">
-        <v>1.011271401574096</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.02155001090851</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.058722541836308</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.053328932946767</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9836241427003973</v>
+        <v>1.030502578772216</v>
       </c>
       <c r="D8">
-        <v>1.005157353095839</v>
+        <v>1.046942239653485</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922295</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9604527909451208</v>
+        <v>1.050514305402698</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03896555196569</v>
+        <v>1.062866756357538</v>
       </c>
       <c r="J8">
-        <v>1.005718278266082</v>
+        <v>1.05126150563718</v>
       </c>
       <c r="K8">
-        <v>1.016267915023758</v>
+        <v>1.057521785483977</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537708</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9721965089319733</v>
+        <v>1.061050888888855</v>
       </c>
       <c r="N8">
-        <v>1.007146513578719</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.020658174743901</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.056889891830707</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.051765525146925</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9713489232188803</v>
+        <v>1.021644081686076</v>
       </c>
       <c r="D9">
-        <v>0.9964015549576037</v>
+        <v>1.040952720086073</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925935</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.9413015873947445</v>
+        <v>1.044379014658092</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035641443047262</v>
+        <v>1.060195987601332</v>
       </c>
       <c r="J9">
-        <v>0.997955636489764</v>
+        <v>1.046455019651494</v>
       </c>
       <c r="K9">
-        <v>1.009553285471293</v>
+        <v>1.053414559747953</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834084</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>0.9554246572404053</v>
+        <v>1.056790888466243</v>
       </c>
       <c r="N9">
-        <v>0.9993728479606908</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.019004341617072</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.053518454090568</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.048858413799699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9626152436278116</v>
+        <v>1.015567251221997</v>
       </c>
       <c r="D10">
-        <v>0.9901770846199532</v>
+        <v>1.03689222848047</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547281</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>0.9275523713650161</v>
+        <v>1.040277482110956</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033186887380237</v>
+        <v>1.058347281267733</v>
       </c>
       <c r="J10">
-        <v>0.9923948603118012</v>
+        <v>1.043176559327813</v>
       </c>
       <c r="K10">
-        <v>1.004725989042208</v>
+        <v>1.050625867774912</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>0.9433656722038962</v>
+        <v>1.053955698899438</v>
       </c>
       <c r="N10">
-        <v>0.9938041748427255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.017896425758737</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.051325276735878</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.046903241011356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9586849194851937</v>
+        <v>1.013443479114464</v>
       </c>
       <c r="D11">
-        <v>0.9873786296020429</v>
+        <v>1.035663455519048</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016256</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9213248865529058</v>
+        <v>1.039409283886815</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032062060622116</v>
+        <v>1.057897373819438</v>
       </c>
       <c r="J11">
-        <v>0.9898835148510761</v>
+        <v>1.042267493923417</v>
       </c>
       <c r="K11">
-        <v>1.002542557282712</v>
+        <v>1.049942756809547</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9379004126926402</v>
+        <v>1.053624395056523</v>
       </c>
       <c r="N11">
-        <v>0.9912892629833906</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.017732669432163</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.051492844203423</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.046452610427625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9572009536779892</v>
+        <v>1.012817297716567</v>
       </c>
       <c r="D12">
-        <v>0.9863225555662618</v>
+        <v>1.035371847375068</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9189664919595987</v>
+        <v>1.039396646228306</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031634411867408</v>
+        <v>1.057841175256391</v>
       </c>
       <c r="J12">
-        <v>0.9889339755418244</v>
+        <v>1.042088940787148</v>
       </c>
       <c r="K12">
-        <v>1.001716570331725</v>
+        <v>1.049851368100823</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9358302690980435</v>
+        <v>1.053806084927238</v>
       </c>
       <c r="N12">
-        <v>0.9903383752194062</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.017773072978737</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.05195854591022</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.046387997480421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9575203887516756</v>
+        <v>1.013326298235335</v>
       </c>
       <c r="D13">
-        <v>0.9865498573311223</v>
+        <v>1.035807822216978</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368229</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>0.9194744936785492</v>
+        <v>1.040071510406322</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031726598266735</v>
+        <v>1.058105158211418</v>
       </c>
       <c r="J13">
-        <v>0.9891384315074154</v>
+        <v>1.042486580744792</v>
       </c>
       <c r="K13">
-        <v>1.001894441164013</v>
+        <v>1.050237874740859</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>0.9362761979882006</v>
+        <v>1.054427670440273</v>
       </c>
       <c r="N13">
-        <v>0.9905431215359197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.017987620643438</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.052723375872293</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.046658808067397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9585627562032067</v>
+        <v>1.014194631054946</v>
       </c>
       <c r="D14">
-        <v>0.9872916796755792</v>
+        <v>1.03644111580382</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>0.9211308890697744</v>
+        <v>1.040853357806595</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032026914988032</v>
+        <v>1.058433417279491</v>
       </c>
       <c r="J14">
-        <v>0.9898053738219414</v>
+        <v>1.043023419761817</v>
       </c>
       <c r="K14">
-        <v>1.002474592162432</v>
+        <v>1.05072315365406</v>
       </c>
       <c r="L14">
-        <v>0.949074550976452</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>0.9377301339681998</v>
+        <v>1.055059896354381</v>
       </c>
       <c r="N14">
-        <v>0.9912110109850315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.018214666142066</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.053394647252848</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.047003309018261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9592017482884169</v>
+        <v>1.014664359571176</v>
       </c>
       <c r="D15">
-        <v>0.9877465059170287</v>
+        <v>1.036766870422942</v>
       </c>
       <c r="E15">
-        <v>0.933278105071747</v>
+        <v>0.9332781050737292</v>
       </c>
       <c r="F15">
-        <v>0.9221453246021495</v>
+        <v>1.041212281379984</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032210629661921</v>
+        <v>1.058591855226999</v>
       </c>
       <c r="J15">
-        <v>0.9902140470574732</v>
+        <v>1.04329207868781</v>
       </c>
       <c r="K15">
-        <v>1.002830028833913</v>
+        <v>1.05095893306615</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767192</v>
+        <v>0.9494987508782936</v>
       </c>
       <c r="M15">
-        <v>0.9386205252818277</v>
+        <v>1.055328857774008</v>
       </c>
       <c r="N15">
-        <v>0.9916202645834333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.018314791147602</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.053644413325556</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.047175787517273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9628728112879978</v>
+        <v>1.017151138547024</v>
       </c>
       <c r="D16">
-        <v>0.9903605434151543</v>
+        <v>1.038417418507274</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017261</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9279595616359476</v>
+        <v>1.042858000834446</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033260188955045</v>
+        <v>1.059348897510251</v>
       </c>
       <c r="J16">
-        <v>0.9925592531871786</v>
+        <v>1.044625757974469</v>
       </c>
       <c r="K16">
-        <v>1.004868853244487</v>
+        <v>1.052091284408702</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175718</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9437229620351512</v>
+        <v>1.056459744679532</v>
       </c>
       <c r="N16">
-        <v>0.9939688011748423</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.01875179789064</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.054499936803564</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.047979492775809</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9651346204272713</v>
+        <v>1.018606940336134</v>
       </c>
       <c r="D17">
-        <v>0.9919718897341198</v>
+        <v>1.039354305332764</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.931530620637302</v>
+        <v>1.043707816434314</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033901601605796</v>
+        <v>1.059755931004184</v>
       </c>
       <c r="J17">
-        <v>0.9940018502625055</v>
+        <v>1.045368393432379</v>
       </c>
       <c r="K17">
-        <v>1.006122160415744</v>
+        <v>1.052705787445034</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068055</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9468560275251862</v>
+        <v>1.056990561090274</v>
       </c>
       <c r="N17">
-        <v>0.9954134469034841</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.018969214913715</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.05479183462963</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.048416502515679</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9664396871430833</v>
+        <v>1.019281317708381</v>
       </c>
       <c r="D18">
-        <v>0.9929018819383926</v>
+        <v>1.039725901794673</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215683</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9335874252430131</v>
+        <v>1.043893765263056</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034269784310331</v>
+        <v>1.059875489595987</v>
       </c>
       <c r="J18">
-        <v>0.9948333927417283</v>
+        <v>1.045635181577647</v>
       </c>
       <c r="K18">
-        <v>1.006844273405414</v>
+        <v>1.052892422721191</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9486602433116881</v>
+        <v>1.056995534187621</v>
       </c>
       <c r="N18">
-        <v>0.9962461702684068</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.018995567424096</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.054560916598153</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.048537006242966</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9668823210367612</v>
+        <v>1.019239667984701</v>
       </c>
       <c r="D19">
-        <v>0.9932173409271775</v>
+        <v>1.03958234530124</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.934284424561261</v>
+        <v>1.043469188176082</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034394332136491</v>
+        <v>1.059732962488603</v>
       </c>
       <c r="J19">
-        <v>0.9951152812295235</v>
+        <v>1.045464523457697</v>
       </c>
       <c r="K19">
-        <v>1.007089009798619</v>
+        <v>1.052690035150863</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816593</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9492715898361865</v>
+        <v>1.05651677051174</v>
       </c>
       <c r="N19">
-        <v>0.9965284590701875</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.018847440161442</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.053861262818396</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.048400208897756</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9648934313283309</v>
+        <v>1.017182470768811</v>
       </c>
       <c r="D20">
-        <v>0.9918000368666002</v>
+        <v>1.037986990902279</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.9311502105954415</v>
+        <v>1.04137353610163</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033833402356788</v>
+        <v>1.058856945817801</v>
       </c>
       <c r="J20">
-        <v>0.9938481052383843</v>
+        <v>1.044066735997023</v>
       </c>
       <c r="K20">
-        <v>1.005988621655154</v>
+        <v>1.051393227599391</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9465223077485407</v>
+        <v>1.054725906835962</v>
       </c>
       <c r="N20">
-        <v>0.9952594835437939</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.018208819677712</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.051924417638135</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.047487206014018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9582564843992878</v>
+        <v>1.012504657081877</v>
       </c>
       <c r="D21">
-        <v>0.9870736992441586</v>
+        <v>1.034830975284332</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148896</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9206444058952173</v>
+        <v>1.038120254979532</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031938755298818</v>
+        <v>1.057375953372062</v>
       </c>
       <c r="J21">
-        <v>0.9896094473681499</v>
+        <v>1.041488710104444</v>
       </c>
       <c r="K21">
-        <v>1.002304173516783</v>
+        <v>1.049181203856915</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>0.9373031235506053</v>
+        <v>1.052413710604144</v>
       </c>
       <c r="N21">
-        <v>0.9910148062932028</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.017309303141666</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.050054264433036</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.045926449165958</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9539433026657776</v>
+        <v>1.009524776142698</v>
       </c>
       <c r="D22">
-        <v>0.984005363821808</v>
+        <v>1.032831331842427</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.9137748674590994</v>
+        <v>1.036089821530565</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030690289253572</v>
+        <v>1.056431220985799</v>
       </c>
       <c r="J22">
-        <v>0.9868470513136303</v>
+        <v>1.03985253598542</v>
       </c>
       <c r="K22">
-        <v>0.9999004790182611</v>
+        <v>1.047779293574831</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.9312725403098729</v>
+        <v>1.050978703910345</v>
       </c>
       <c r="N22">
-        <v>0.9882484873194346</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.016742669723955</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.048918566779588</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.044921958353737</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9562437349414925</v>
+        <v>1.011095910627762</v>
       </c>
       <c r="D23">
-        <v>0.9856415122450028</v>
+        <v>1.033879324816725</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.9174430835978796</v>
+        <v>1.037157801600561</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031357740929258</v>
+        <v>1.056925290240103</v>
       </c>
       <c r="J23">
-        <v>0.9883211071433271</v>
+        <v>1.040709565184662</v>
       </c>
       <c r="K23">
-        <v>1.0011833347755</v>
+        <v>1.048510246954419</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285314</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.9344929540786808</v>
+        <v>1.051730800306492</v>
       </c>
       <c r="N23">
-        <v>0.9897246364774861</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.017035408719079</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.049513793565581</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.04542926343922</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9650024580792171</v>
+        <v>1.017180941145615</v>
       </c>
       <c r="D24">
-        <v>0.9918777202279997</v>
+        <v>1.037958963425075</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>0.9313221819788021</v>
+        <v>1.04131469726042</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03386423698688</v>
+        <v>1.058828642238353</v>
       </c>
       <c r="J24">
-        <v>0.9939176065047607</v>
+        <v>1.044033296867152</v>
       </c>
       <c r="K24">
-        <v>1.006048989566887</v>
+        <v>1.05135072988013</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>0.9466731729360697</v>
+        <v>1.054653150170858</v>
       </c>
       <c r="N24">
-        <v>0.9953290835099405</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.018177925277874</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.051826605509807</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.047430174295534</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9746137465956264</v>
+        <v>1.024000239097188</v>
       </c>
       <c r="D25">
-        <v>0.9987298842223661</v>
+        <v>1.04255188250853</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718014</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>0.9464131274500698</v>
+        <v>1.046007451455613</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036541165361592</v>
+        <v>1.060922966961881</v>
       </c>
       <c r="J25">
-        <v>1.000026739729767</v>
+        <v>1.047746042108139</v>
       </c>
       <c r="K25">
-        <v>1.011347949151883</v>
+        <v>1.054523689128781</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>0.9599044680459509</v>
+        <v>1.057931203451858</v>
       </c>
       <c r="N25">
-        <v>1.001446892404854</v>
+        <v>1.019454740839596</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.054420920486413</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.049670733718733</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_63/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,105 +439,123 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029219420570821</v>
+        <v>1.026684427328143</v>
       </c>
       <c r="D2">
-        <v>1.046065203450192</v>
+        <v>1.042930775710641</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9527101846680759</v>
       </c>
       <c r="F2">
-        <v>1.049619523577808</v>
+        <v>1.047343947566249</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.062479055068783</v>
+        <v>1.060638036608883</v>
       </c>
       <c r="J2">
-        <v>1.050559974320363</v>
+        <v>1.048095286669851</v>
       </c>
       <c r="K2">
-        <v>1.056918019347609</v>
+        <v>1.053822742028631</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.060428296564845</v>
+        <v>1.058180875192237</v>
       </c>
       <c r="N2">
-        <v>1.020412417096298</v>
+        <v>1.019756362077477</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.056397162469056</v>
+        <v>1.054618515181641</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.051316113438854</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.049136186251007</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.026221415751823</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C3">
-        <v>1.032934733708879</v>
+        <v>1.030199059419671</v>
       </c>
       <c r="D3">
-        <v>1.048583779786823</v>
+        <v>1.045226537309119</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.052207527422479</v>
+        <v>1.049767424769415</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.063575810862817</v>
+        <v>1.061595803432779</v>
       </c>
       <c r="J3">
-        <v>1.052566126833187</v>
+        <v>1.049899004132909</v>
       </c>
       <c r="K3">
-        <v>1.05863058650017</v>
+        <v>1.055311678775565</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.062213294567003</v>
+        <v>1.059800788085348</v>
       </c>
       <c r="N3">
-        <v>1.021101555105206</v>
+        <v>1.02024180155955</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.057809837125458</v>
+        <v>1.055900542062783</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.052524387103669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.050186064844509</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.026523360025027</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035296482303335</v>
+        <v>1.032434435686552</v>
       </c>
       <c r="D4">
-        <v>1.050188587149307</v>
+        <v>1.046690503364758</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.053858972806305</v>
+        <v>1.051315017433434</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.064264114501186</v>
+        <v>1.062196118882954</v>
       </c>
       <c r="J4">
-        <v>1.053838454553711</v>
+        <v>1.051043343428119</v>
       </c>
       <c r="K4">
-        <v>1.059716786509397</v>
+        <v>1.056256271963294</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.063348080570568</v>
+        <v>1.060831184155612</v>
       </c>
       <c r="N4">
-        <v>1.021538861330447</v>
+        <v>1.020550076033959</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.058707922731264</v>
+        <v>1.056716014084064</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.053293277615967</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.05085491585006</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026712706287738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03628403810989</v>
+        <v>1.033369141359862</v>
       </c>
       <c r="D5">
-        <v>1.050862499186101</v>
+        <v>1.047305555860357</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.054551570283729</v>
+        <v>1.051964218429106</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.064551527154187</v>
+        <v>1.06244669797563</v>
       </c>
       <c r="J5">
-        <v>1.054371724396567</v>
+        <v>1.051522991246867</v>
       </c>
       <c r="K5">
-        <v>1.060173295266859</v>
+        <v>1.056653550668162</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.063824109312765</v>
+        <v>1.061263554962232</v>
       </c>
       <c r="N5">
-        <v>1.021723321061626</v>
+        <v>1.020680073642066</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.05908465826177</v>
+        <v>1.057058199034686</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.05362309799813</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.051143573987827</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026792585012933</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036454778854191</v>
+        <v>1.033530419708098</v>
       </c>
       <c r="D6">
-        <v>1.05098147243016</v>
+        <v>1.047414178555844</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.054672091614656</v>
+        <v>1.05207707659585</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.064603239911181</v>
+        <v>1.062491894929783</v>
       </c>
       <c r="J6">
-        <v>1.054466284711883</v>
+        <v>1.051607967190413</v>
       </c>
       <c r="K6">
-        <v>1.060255740520313</v>
+        <v>1.056725584994354</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.063908259921735</v>
+        <v>1.061340000272009</v>
       </c>
       <c r="N6">
-        <v>1.021757382698286</v>
+        <v>1.020703972459001</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.059151256163075</v>
+        <v>1.057118699020498</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.05368997851879</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.051203968385783</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026807981232509</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035324522226689</v>
+        <v>1.032470047754134</v>
       </c>
       <c r="D7">
-        <v>1.050214164257172</v>
+        <v>1.046721060564004</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.053880470946119</v>
+        <v>1.051340803059013</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.064278050321502</v>
+        <v>1.062213860374496</v>
       </c>
       <c r="J7">
-        <v>1.053860064624415</v>
+        <v>1.051072318846989</v>
       </c>
       <c r="K7">
-        <v>1.059739279093799</v>
+        <v>1.05628367624417</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.063366552713454</v>
+        <v>1.060853887741394</v>
       </c>
       <c r="N7">
-        <v>1.02155001090851</v>
+        <v>1.020586902152448</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.058722541836308</v>
+        <v>1.056733982057174</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.053328932946767</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.050896056470502</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026721998791769</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030502578772216</v>
+        <v>1.027927506250969</v>
       </c>
       <c r="D8">
-        <v>1.046942239653485</v>
+        <v>1.043752032652646</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.050514305402698</v>
+        <v>1.048199538311237</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.062866756357538</v>
+        <v>1.060993260264167</v>
       </c>
       <c r="J8">
-        <v>1.05126150563718</v>
+        <v>1.048755482903182</v>
       </c>
       <c r="K8">
-        <v>1.057521785483977</v>
+        <v>1.054370256971046</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.061050888888855</v>
+        <v>1.058763920772299</v>
       </c>
       <c r="N8">
-        <v>1.020658174743901</v>
+        <v>1.020018181896727</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.056889891830707</v>
+        <v>1.055079947714974</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.051765525146925</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.04954810727819</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.026339950057199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021644081686076</v>
+        <v>1.019560706141758</v>
       </c>
       <c r="D9">
-        <v>1.040952720086073</v>
+        <v>1.03830262264142</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.044379014658092</v>
+        <v>1.042464412251613</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.060195987601332</v>
+        <v>1.058658999122153</v>
       </c>
       <c r="J9">
-        <v>1.046455019651494</v>
+        <v>1.044441143453661</v>
       </c>
       <c r="K9">
-        <v>1.053414559747953</v>
+        <v>1.050803396073207</v>
       </c>
       <c r="L9">
         <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.056790888466243</v>
+        <v>1.054904155453384</v>
       </c>
       <c r="N9">
-        <v>1.019004341617072</v>
+        <v>1.018866155239306</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.053518454090568</v>
+        <v>1.052025256276909</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.048858413799699</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.047022770553681</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.025602043905065</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.015567251221997</v>
+        <v>1.013863802667005</v>
       </c>
       <c r="D10">
-        <v>1.03689222848047</v>
+        <v>1.034641409113644</v>
       </c>
       <c r="E10">
         <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.040277482110956</v>
+        <v>1.038662449133495</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.058347281267733</v>
+        <v>1.057061226349577</v>
       </c>
       <c r="J10">
-        <v>1.043176559327813</v>
+        <v>1.041537962764083</v>
       </c>
       <c r="K10">
-        <v>1.050625867774912</v>
+        <v>1.048412156583904</v>
       </c>
       <c r="L10">
         <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.053955698899438</v>
+        <v>1.052367048898125</v>
       </c>
       <c r="N10">
-        <v>1.017896425758737</v>
+        <v>1.018217722928363</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.051325276735878</v>
+        <v>1.050068060343119</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.046903241011356</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.04535029719575</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.025111873762377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.013443479114464</v>
+        <v>1.011869998774979</v>
       </c>
       <c r="D11">
-        <v>1.035663455519048</v>
+        <v>1.033539255549791</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.039409283886815</v>
+        <v>1.037892697492387</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.057897373819438</v>
+        <v>1.056693566736276</v>
       </c>
       <c r="J11">
-        <v>1.042267493923417</v>
+        <v>1.040757175482206</v>
       </c>
       <c r="K11">
-        <v>1.049942756809547</v>
+        <v>1.04785522551899</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.053624395056523</v>
+        <v>1.052133725407236</v>
       </c>
       <c r="N11">
-        <v>1.017732669432163</v>
+        <v>1.018324175985612</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.051492844203423</v>
+        <v>1.050313743474605</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.046452610427625</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.044992106684418</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.025076403185318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.012817297716567</v>
+        <v>1.011264958001051</v>
       </c>
       <c r="D12">
-        <v>1.035371847375068</v>
+        <v>1.033267068478147</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.039396646228306</v>
+        <v>1.037896307883181</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.057841175256391</v>
+        <v>1.056650765664234</v>
       </c>
       <c r="J12">
-        <v>1.042088940787148</v>
+        <v>1.040600099577283</v>
       </c>
       <c r="K12">
-        <v>1.049851368100823</v>
+        <v>1.047783520592266</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.053806084927238</v>
+        <v>1.052331789048919</v>
       </c>
       <c r="N12">
-        <v>1.017773072978737</v>
+        <v>1.018439324367287</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.05195854591022</v>
+        <v>1.050792781140395</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.046387997480421</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.044941411268669</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.025109740380771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.013326298235335</v>
+        <v>1.011696425084503</v>
       </c>
       <c r="D13">
-        <v>1.035807822216978</v>
+        <v>1.03363017974372</v>
       </c>
       <c r="E13">
         <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.040071510406322</v>
+        <v>1.038515957332388</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.058105158211418</v>
+        <v>1.056867854908665</v>
       </c>
       <c r="J13">
-        <v>1.042486580744792</v>
+        <v>1.040923046979119</v>
       </c>
       <c r="K13">
-        <v>1.050237874740859</v>
+        <v>1.048098276928457</v>
       </c>
       <c r="L13">
         <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.054427670440273</v>
+        <v>1.052898985161026</v>
       </c>
       <c r="N13">
-        <v>1.017987620643438</v>
+        <v>1.018543152631011</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.052723375872293</v>
+        <v>1.051514900990482</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.046658808067397</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.045161246166206</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.025207549886572</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.014194631054946</v>
+        <v>1.012468316330919</v>
       </c>
       <c r="D14">
-        <v>1.03644111580382</v>
+        <v>1.034173064914271</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.040853357806595</v>
+        <v>1.03922866949628</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.058433417279491</v>
+        <v>1.057137485350606</v>
       </c>
       <c r="J14">
-        <v>1.043023419761817</v>
+        <v>1.041366369734996</v>
       </c>
       <c r="K14">
-        <v>1.05072315365406</v>
+        <v>1.048494236444158</v>
       </c>
       <c r="L14">
         <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.055059896354381</v>
+        <v>1.053462912276794</v>
       </c>
       <c r="N14">
-        <v>1.018214666142066</v>
+        <v>1.018612578949019</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.053394647252848</v>
+        <v>1.052132347475254</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.047003309018261</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.045442731787178</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.025305781955157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.014664359571176</v>
+        <v>1.012892157868009</v>
       </c>
       <c r="D15">
-        <v>1.036766870422942</v>
+        <v>1.034455864423002</v>
       </c>
       <c r="E15">
         <v>0.9332781050737292</v>
       </c>
       <c r="F15">
-        <v>1.041212281379984</v>
+        <v>1.039554584965152</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.058591855226999</v>
+        <v>1.057267937778114</v>
       </c>
       <c r="J15">
-        <v>1.04329207868781</v>
+        <v>1.041590365382501</v>
       </c>
       <c r="K15">
-        <v>1.05095893306615</v>
+        <v>1.048687500901619</v>
       </c>
       <c r="L15">
         <v>0.9494987508782936</v>
       </c>
       <c r="M15">
-        <v>1.055328857774008</v>
+        <v>1.053699212794815</v>
       </c>
       <c r="N15">
-        <v>1.018314791147602</v>
+        <v>1.01863501733809</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.053644413325556</v>
+        <v>1.05235633093482</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.047175787517273</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.045585723513527</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.025348888273285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.017151138547024</v>
+        <v>1.015167585674983</v>
       </c>
       <c r="D16">
-        <v>1.038417418507274</v>
+        <v>1.035906154283956</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.042858000834446</v>
+        <v>1.041046202963661</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.059348897510251</v>
+        <v>1.057894452089643</v>
       </c>
       <c r="J16">
-        <v>1.044625757974469</v>
+        <v>1.042717179063567</v>
       </c>
       <c r="K16">
-        <v>1.052091284408702</v>
+        <v>1.049621159088413</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.056459744679532</v>
+        <v>1.054677277837084</v>
       </c>
       <c r="N16">
-        <v>1.01875179789064</v>
+        <v>1.0187190759542</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.054499936803564</v>
+        <v>1.053091023399303</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.047979492775809</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.046249251162502</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.025536382201321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.018606940336134</v>
+        <v>1.016521453094201</v>
       </c>
       <c r="D17">
-        <v>1.039354305332764</v>
+        <v>1.036742825102373</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.043707816434314</v>
+        <v>1.041819248722866</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.059755931004184</v>
+        <v>1.058236706173838</v>
       </c>
       <c r="J17">
-        <v>1.045368393432379</v>
+        <v>1.04335921387291</v>
       </c>
       <c r="K17">
-        <v>1.052705787445034</v>
+        <v>1.050135894888026</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.056990561090274</v>
+        <v>1.055131721606162</v>
       </c>
       <c r="N17">
-        <v>1.018969214913715</v>
+        <v>1.018775907635272</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.05479183462963</v>
+        <v>1.053322410212427</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.048416502515679</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.046615973172383</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.025629184051453</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.019281317708381</v>
+        <v>1.01717177608282</v>
       </c>
       <c r="D18">
-        <v>1.039725901794673</v>
+        <v>1.037087727462407</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.043893765263056</v>
+        <v>1.041984545487346</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.059875489595987</v>
+        <v>1.058339275097191</v>
       </c>
       <c r="J18">
-        <v>1.045635181577647</v>
+        <v>1.043601390727099</v>
       </c>
       <c r="K18">
-        <v>1.052892422721191</v>
+        <v>1.050295579267203</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.056995534187621</v>
+        <v>1.05511589393001</v>
       </c>
       <c r="N18">
-        <v>1.018995567424096</v>
+        <v>1.018762235177868</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.054560916598153</v>
+        <v>1.053074745993447</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.048537006242966</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.046716280582223</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.025633297595622</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.019239667984701</v>
+        <v>1.017173691678682</v>
       </c>
       <c r="D19">
-        <v>1.03958234530124</v>
+        <v>1.036982982006287</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.043469188176082</v>
+        <v>1.041588995301053</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.059732962488603</v>
+        <v>1.058222016419437</v>
       </c>
       <c r="J19">
-        <v>1.045464523457697</v>
+        <v>1.043472305924828</v>
       </c>
       <c r="K19">
-        <v>1.052690035150863</v>
+        <v>1.050131190841204</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.05651677051174</v>
+        <v>1.054665582065888</v>
       </c>
       <c r="N19">
-        <v>1.018847440161442</v>
+        <v>1.018664911169899</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.053861262818396</v>
+        <v>1.05239712207151</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.048400208897756</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.046606977685226</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.025555103952594</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.017182470768811</v>
+        <v>1.015346049033775</v>
       </c>
       <c r="D20">
-        <v>1.037986990902279</v>
+        <v>1.035607366497511</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.04137353610163</v>
+        <v>1.039659836454745</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.058856945817801</v>
+        <v>1.057487725895639</v>
       </c>
       <c r="J20">
-        <v>1.044066735997023</v>
+        <v>1.042297959680911</v>
       </c>
       <c r="K20">
-        <v>1.051393227599391</v>
+        <v>1.04905172353014</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.054725906835962</v>
+        <v>1.053039408884601</v>
       </c>
       <c r="N20">
-        <v>1.018208819677712</v>
+        <v>1.018323957998903</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.051924417638135</v>
+        <v>1.050589751317668</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.047487206014018</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.045848030155115</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.025247135835692</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.012504657081877</v>
+        <v>1.011114132102779</v>
       </c>
       <c r="D21">
-        <v>1.034830975284332</v>
+        <v>1.032870850762605</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.038120254979532</v>
+        <v>1.036730221391855</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.057375953372062</v>
+        <v>1.05628004155621</v>
       </c>
       <c r="J21">
-        <v>1.041488710104444</v>
+        <v>1.040154414944233</v>
       </c>
       <c r="K21">
-        <v>1.049181203856915</v>
+        <v>1.047255133689525</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.052413710604144</v>
+        <v>1.051047612145455</v>
       </c>
       <c r="N21">
-        <v>1.017309303141666</v>
+        <v>1.018174786597863</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.050054264433036</v>
+        <v>1.048973102398203</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.045926449165958</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.044581320550332</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024877428003187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.009524776142698</v>
+        <v>1.008415470073073</v>
       </c>
       <c r="D22">
-        <v>1.032831331842427</v>
+        <v>1.031135767004656</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.036089821530565</v>
+        <v>1.034904128546514</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.056431220985799</v>
+        <v>1.055507115682817</v>
       </c>
       <c r="J22">
-        <v>1.03985253598542</v>
+        <v>1.038790692491673</v>
       </c>
       <c r="K22">
-        <v>1.047779293574831</v>
+        <v>1.046114663152719</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.050978703910345</v>
+        <v>1.049814452610411</v>
       </c>
       <c r="N22">
-        <v>1.016742669723955</v>
+        <v>1.01807580410442</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.048918566779588</v>
+        <v>1.047997149963444</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.044921958353737</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.04376036836826</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.024643183923924</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.011095910627762</v>
+        <v>1.009822948378095</v>
       </c>
       <c r="D23">
-        <v>1.033879324816725</v>
+        <v>1.032033064515358</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.037157801600561</v>
+        <v>1.035855022243356</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.056925290240103</v>
+        <v>1.055902561403823</v>
       </c>
       <c r="J23">
-        <v>1.040709565184662</v>
+        <v>1.039489475817073</v>
       </c>
       <c r="K23">
-        <v>1.048510246954419</v>
+        <v>1.046696816257552</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.051730800306492</v>
+        <v>1.050450981251173</v>
       </c>
       <c r="N23">
-        <v>1.017035408719079</v>
+        <v>1.018078065896983</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.049513793565581</v>
+        <v>1.048500914364364</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.04542926343922</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.044161522473425</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.024758336981209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.017180941145615</v>
+        <v>1.01535277381793</v>
       </c>
       <c r="D24">
-        <v>1.037958963425075</v>
+        <v>1.035586083809672</v>
       </c>
       <c r="E24">
         <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.04131469726042</v>
+        <v>1.039606245179132</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.058828642238353</v>
+        <v>1.057463996299502</v>
       </c>
       <c r="J24">
-        <v>1.044033296867152</v>
+        <v>1.042272376264024</v>
       </c>
       <c r="K24">
-        <v>1.05135072988013</v>
+        <v>1.049015816372723</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.054653150170858</v>
+        <v>1.052971785678632</v>
       </c>
       <c r="N24">
-        <v>1.018177925277874</v>
+        <v>1.018301959990799</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.051826605509807</v>
+        <v>1.050495937551934</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.047430174295534</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.045792972572696</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.025228749086204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024000239097188</v>
+        <v>1.021770635981472</v>
       </c>
       <c r="D25">
-        <v>1.04255188250853</v>
+        <v>1.039747359137854</v>
       </c>
       <c r="E25">
         <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.046007451455613</v>
+        <v>1.043977276080249</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.060922966961881</v>
+        <v>1.0592887673154</v>
       </c>
       <c r="J25">
-        <v>1.047746042108139</v>
+        <v>1.045586905772217</v>
       </c>
       <c r="K25">
-        <v>1.054523689128781</v>
+        <v>1.051758463276872</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.057931203451858</v>
+        <v>1.055929211927818</v>
       </c>
       <c r="N25">
-        <v>1.019454740839596</v>
+        <v>1.019144290884464</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.054420920486413</v>
+        <v>1.052836506606779</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.049670733718733</v>
+        <v>1.047728982655914</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.025804090827698</v>
       </c>
     </row>
   </sheetData>
